--- a/Assets/StoryCSVs/TestCSVs/WholeWorkbook/Test_Narrative_Workbook.xlsx
+++ b/Assets/StoryCSVs/TestCSVs/WholeWorkbook/Test_Narrative_Workbook.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karee\Documents\GitRepo\DataGame\DataGame\Assets\StoryCSVs\TestCSVs\WholeWorkbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12791EE-FB52-4E2E-92FD-4C6D9AA3D96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC794BA-0402-4CD7-9554-3A77CAFCF42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30624" yWindow="-96" windowWidth="30912" windowHeight="16872" activeTab="2" xr2:uid="{C3FDA416-CBEF-4DA2-AAFE-8CA8E918681D}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{C3FDA416-CBEF-4DA2-AAFE-8CA8E918681D}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemTable" sheetId="1" r:id="rId1"/>
     <sheet name="Characters" sheetId="4" r:id="rId2"/>
-    <sheet name="Chatlog 1A" sheetId="2" r:id="rId3"/>
-    <sheet name="Chatlog Template" sheetId="3" r:id="rId4"/>
+    <sheet name="Locations" sheetId="5" r:id="rId3"/>
+    <sheet name="Chatlog 1A" sheetId="2" r:id="rId4"/>
+    <sheet name="Chatlog Template" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="LOCALE">Locations!$C:$C</definedName>
     <definedName name="NAMES">Characters!$B:$B</definedName>
+    <definedName name="TITLE">Locations!$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -174,9 +177,6 @@
     <t>PleaseDontLookForMe</t>
   </si>
   <si>
-    <t>FireCrotch</t>
-  </si>
-  <si>
     <t>Melanie</t>
   </si>
   <si>
@@ -204,6 +204,81 @@
   </si>
   <si>
     <t># This is a message. It will appear, in this chat, at 18:00 in game, time.</t>
+  </si>
+  <si>
+    <t>FlameGurl</t>
+  </si>
+  <si>
+    <t>MelMel</t>
+  </si>
+  <si>
+    <t>Xamtar</t>
+  </si>
+  <si>
+    <t>Chimicha</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Locale</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Seppland</t>
+  </si>
+  <si>
+    <t>Nutteford</t>
+  </si>
+  <si>
+    <t>Nuttemouth</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Nuttefordshire</t>
+  </si>
+  <si>
+    <t>Nuttemyn Wells</t>
+  </si>
+  <si>
+    <t>Oxeley</t>
+  </si>
+  <si>
+    <t>Antesbury</t>
+  </si>
+  <si>
+    <t>Medium seaside village, contains aquatic college</t>
+  </si>
+  <si>
+    <t>Small village. Mostly retirees &amp; nursing homes</t>
+  </si>
+  <si>
+    <t>County Capital. Medium size town. River Nutte runs directly through</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern suburb of Nutteford. Middle-upper class. </t>
+  </si>
+  <si>
+    <t>Northern suburb of Nutteford. Working-middle class.</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>BIRTHPLACE</t>
+  </si>
+  <si>
+    <t>EDUCATION</t>
+  </si>
+  <si>
+    <t>OCCUPATION</t>
   </si>
 </sst>
 </file>
@@ -260,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -275,6 +350,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -292,10 +371,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3413,32 +3488,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D9048A-2A84-4417-B532-6BF062B3741B}">
-  <dimension ref="A1:D196"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3449,7 +3540,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3460,7 +3551,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3468,74 +3559,83 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4438,6 +4538,134 @@
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F201" xr:uid="{962003AE-3AD2-4D2B-A8BA-0550CA029FB4}">
+      <formula1>LOCALE</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB52E31-61D3-421D-9695-39338102F5F1}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="7">
+        <v>7000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="7">
+        <v>30000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4445,12 +4673,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75D9D40-B82B-4836-B9A6-01E5F8AA0E57}">
   <dimension ref="A1:D720"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4475,7 +4703,7 @@
         <v>0.75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4515,7 +4743,7 @@
         <v>0.75347222222222199</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4539,7 +4767,7 @@
         <v>0.75555555555555598</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4569,7 +4797,7 @@
         <v>0.75763888888888897</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4593,7 +4821,7 @@
         <v>0.75972222222222197</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -4601,7 +4829,7 @@
         <v>0.76041666666666696</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -7888,7 +8116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01909B1B-44B6-4544-B68A-EC97546CA38A}">
   <dimension ref="A1:D601"/>
   <sheetViews>

--- a/Assets/StoryCSVs/TestCSVs/WholeWorkbook/Test_Narrative_Workbook.xlsx
+++ b/Assets/StoryCSVs/TestCSVs/WholeWorkbook/Test_Narrative_Workbook.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karee\Documents\GitRepo\DataGame\DataGame\Assets\StoryCSVs\TestCSVs\WholeWorkbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC794BA-0402-4CD7-9554-3A77CAFCF42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241DF771-C1EA-49D0-9AAF-1D2F777A2D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{C3FDA416-CBEF-4DA2-AAFE-8CA8E918681D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{C3FDA416-CBEF-4DA2-AAFE-8CA8E918681D}"/>
   </bookViews>
   <sheets>
-    <sheet name="ItemTable" sheetId="1" r:id="rId1"/>
+    <sheet name="TraitTable" sheetId="1" r:id="rId1"/>
     <sheet name="Characters" sheetId="4" r:id="rId2"/>
     <sheet name="Locations" sheetId="5" r:id="rId3"/>
     <sheet name="Chatlog 1A" sheetId="2" r:id="rId4"/>
     <sheet name="Chatlog Template" sheetId="3" r:id="rId5"/>
+    <sheet name="ForumPostTemplate" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="CHARNAME">Characters!$B$2:$B$201</definedName>
+    <definedName name="EDUCATION">TraitTable!$B$2:$B$547</definedName>
+    <definedName name="EMPLOYMENT">TraitTable!$C$2:$C$45</definedName>
+    <definedName name="GENDER">TraitTable!$E$2:$E$50</definedName>
     <definedName name="LOCALE">Locations!$C:$C</definedName>
     <definedName name="NAMES">Characters!$B:$B</definedName>
+    <definedName name="OCCUPATION">TraitTable!$D$2:$D$52</definedName>
+    <definedName name="SEXUALITY">TraitTable!$F$2:$F$48</definedName>
     <definedName name="TITLE">Locations!$C$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -79,24 +86,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="106">
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Austen</t>
-  </si>
-  <si>
-    <t>Eyre</t>
-  </si>
-  <si>
-    <t>Wilde</t>
-  </si>
-  <si>
-    <t>Adams</t>
-  </si>
-  <si>
-    <t>Herbert</t>
   </si>
   <si>
     <t>John</t>
@@ -135,21 +127,6 @@
     <t>### This!</t>
   </si>
   <si>
-    <t>Wild Boys</t>
-  </si>
-  <si>
-    <t>Mestyk Manor</t>
-  </si>
-  <si>
-    <t>PLACES</t>
-  </si>
-  <si>
-    <t>SHOWS</t>
-  </si>
-  <si>
-    <t>BOOKS</t>
-  </si>
-  <si>
     <t># Now sometimes we need to be able to refer to a tagged item in the item table</t>
   </si>
   <si>
@@ -159,22 +136,10 @@
     <t># You can also use this setup to get messages from multiple people to appear in the same time block.</t>
   </si>
   <si>
-    <t>CIVID</t>
-  </si>
-  <si>
     <t>Dave</t>
   </si>
   <si>
     <t>NAME</t>
-  </si>
-  <si>
-    <t>HANDLE</t>
-  </si>
-  <si>
-    <t>TotallyLegalDeliveryDriver</t>
-  </si>
-  <si>
-    <t>PleaseDontLookForMe</t>
   </si>
   <si>
     <t>Melanie</t>
@@ -257,9 +222,6 @@
     <t>Small village. Mostly retirees &amp; nursing homes</t>
   </si>
   <si>
-    <t>County Capital. Medium size town. River Nutte runs directly through</t>
-  </si>
-  <si>
     <t xml:space="preserve">Southern suburb of Nutteford. Middle-upper class. </t>
   </si>
   <si>
@@ -278,7 +240,172 @@
     <t>EDUCATION</t>
   </si>
   <si>
-    <t>OCCUPATION</t>
+    <t>OhGodOhNo</t>
+  </si>
+  <si>
+    <t>SaltDaddy</t>
+  </si>
+  <si>
+    <t>WebHandle</t>
+  </si>
+  <si>
+    <t>WebID</t>
+  </si>
+  <si>
+    <t>EMPLOYMENT STATUS</t>
+  </si>
+  <si>
+    <t>OCCUPATION FIELD</t>
+  </si>
+  <si>
+    <t>GENDER IDENTITY</t>
+  </si>
+  <si>
+    <t>SEXUALITY</t>
+  </si>
+  <si>
+    <t>Primary School</t>
+  </si>
+  <si>
+    <t>Unemployed</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Heterosexual</t>
+  </si>
+  <si>
+    <t>Secondary School</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Homosexual</t>
+  </si>
+  <si>
+    <t>GCSEs</t>
+  </si>
+  <si>
+    <t>Part-Time</t>
+  </si>
+  <si>
+    <t>Publishing</t>
+  </si>
+  <si>
+    <t>Bisexual</t>
+  </si>
+  <si>
+    <t>Nutteford Central</t>
+  </si>
+  <si>
+    <t>BTEC</t>
+  </si>
+  <si>
+    <t>Full-Time</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Asexual</t>
+  </si>
+  <si>
+    <t>A-Levels</t>
+  </si>
+  <si>
+    <t>Self-Employed</t>
+  </si>
+  <si>
+    <t>Consultancy</t>
+  </si>
+  <si>
+    <t>Pansexual</t>
+  </si>
+  <si>
+    <t>International Baccalaureate</t>
+  </si>
+  <si>
+    <t>Apprenticeship</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Associates Degree</t>
+  </si>
+  <si>
+    <t>Internship</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Undergraduate</t>
+  </si>
+  <si>
+    <t>Trades</t>
+  </si>
+  <si>
+    <t>Post-Graduate</t>
+  </si>
+  <si>
+    <t>Logistics</t>
+  </si>
+  <si>
+    <t>PhD</t>
+  </si>
+  <si>
+    <t>Hospitality</t>
+  </si>
+  <si>
+    <t>Post-Doctorate</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>LOCATIONS</t>
+  </si>
+  <si>
+    <t>As the first item in this spreadsheet this is the initial forum post</t>
+  </si>
+  <si>
+    <t>At this point in time, David is commenting on the post</t>
+  </si>
+  <si>
+    <t>Amy thinks David is a smelly doo doo head</t>
+  </si>
+  <si>
+    <t>That's mean, Amy</t>
+  </si>
+  <si>
+    <t>lol</t>
+  </si>
+  <si>
+    <t>BIRTHDATE</t>
+  </si>
+  <si>
+    <t>Academic</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Jenja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County Capital. Medium size town. </t>
   </si>
 </sst>
 </file>
@@ -335,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -356,6 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,2794 +818,2911 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338823B8-C032-4C47-BD81-E46255195D8B}">
-  <dimension ref="A1:D550"/>
+  <dimension ref="A1:G550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="6">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="6">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="6">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="6">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="6">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="6">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="6">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="6">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="6">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="6">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="6">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="6">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="6">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="6">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="6">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="6">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="6">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="6">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="6">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="6">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="6">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="6">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="6">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="6">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="6">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="6">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="6">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="6">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="6">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="6">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="6">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="6">
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="6">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="6">
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="6">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="6">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="6">
         <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="6">
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="6">
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="6">
         <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="6">
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="6">
         <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="6">
         <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="6">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="6">
         <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="6">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="6">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="6">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="6">
         <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="6">
         <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="6">
         <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="6">
         <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="6">
         <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="6">
         <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="6">
         <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="6">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="6">
         <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="6">
         <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="6">
         <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="6">
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="6">
         <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="6">
         <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="6">
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="6">
         <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="6">
         <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="6">
         <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="6">
         <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="6">
         <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="6">
         <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="6">
         <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="6">
         <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="6">
         <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="6">
         <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="6">
         <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="6">
         <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="6">
         <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="6">
         <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="6">
         <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="6">
         <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="6">
         <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="6">
         <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="6">
         <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="6">
         <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="6">
         <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="6">
         <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="6">
         <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="6">
         <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="6">
         <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="6">
         <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="6">
         <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="6">
         <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="6">
         <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="6">
         <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="6">
         <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="6">
         <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="6">
         <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="6">
         <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="A150" s="6">
         <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="6">
         <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="A152" s="6">
         <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="6">
         <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="A154" s="6">
         <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="6">
         <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="A156" s="6">
         <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="6">
         <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" s="6">
         <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="6">
         <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" s="6">
         <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" s="6">
         <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" s="6">
         <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" s="6">
         <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="A164" s="6">
         <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="A165" s="6">
         <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="A166" s="6">
         <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="A167" s="6">
         <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="A168" s="6">
         <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="A169" s="6">
         <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="A170" s="6">
         <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="A171" s="6">
         <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="A172" s="6">
         <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="A173" s="6">
         <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="A174" s="6">
         <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="A175" s="6">
         <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="A176" s="6">
         <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="A177" s="6">
         <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="A178" s="6">
         <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="A179" s="6">
         <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="A180" s="6">
         <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="A181" s="6">
         <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="A182" s="6">
         <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="A183" s="6">
         <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="A184" s="6">
         <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="A185" s="6">
         <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="A186" s="6">
         <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="A187" s="6">
         <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188">
+      <c r="A188" s="6">
         <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="A189" s="6">
         <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="A190" s="6">
         <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191">
+      <c r="A191" s="6">
         <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="A192" s="6">
         <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="A193" s="6">
         <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="A194" s="6">
         <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="A195" s="6">
         <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="A196" s="6">
         <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="A197" s="6">
         <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="A198" s="6">
         <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="A199" s="6">
         <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200">
+      <c r="A200" s="6">
         <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201">
+      <c r="A201" s="6">
         <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202">
+      <c r="A202" s="6">
         <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203">
+      <c r="A203" s="6">
         <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204">
+      <c r="A204" s="6">
         <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205">
+      <c r="A205" s="6">
         <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206">
+      <c r="A206" s="6">
         <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207">
+      <c r="A207" s="6">
         <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208">
+      <c r="A208" s="6">
         <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209">
+      <c r="A209" s="6">
         <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210">
+      <c r="A210" s="6">
         <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211">
+      <c r="A211" s="6">
         <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212">
+      <c r="A212" s="6">
         <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213">
+      <c r="A213" s="6">
         <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214">
+      <c r="A214" s="6">
         <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215">
+      <c r="A215" s="6">
         <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216">
+      <c r="A216" s="6">
         <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217">
+      <c r="A217" s="6">
         <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218">
+      <c r="A218" s="6">
         <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219">
+      <c r="A219" s="6">
         <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220">
+      <c r="A220" s="6">
         <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221">
+      <c r="A221" s="6">
         <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222">
+      <c r="A222" s="6">
         <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223">
+      <c r="A223" s="6">
         <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224">
+      <c r="A224" s="6">
         <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225">
+      <c r="A225" s="6">
         <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226">
+      <c r="A226" s="6">
         <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227">
+      <c r="A227" s="6">
         <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228">
+      <c r="A228" s="6">
         <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229">
+      <c r="A229" s="6">
         <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230">
+      <c r="A230" s="6">
         <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231">
+      <c r="A231" s="6">
         <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232">
+      <c r="A232" s="6">
         <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233">
+      <c r="A233" s="6">
         <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234">
+      <c r="A234" s="6">
         <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235">
+      <c r="A235" s="6">
         <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236">
+      <c r="A236" s="6">
         <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237">
+      <c r="A237" s="6">
         <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238">
+      <c r="A238" s="6">
         <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239">
+      <c r="A239" s="6">
         <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240">
+      <c r="A240" s="6">
         <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241">
+      <c r="A241" s="6">
         <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242">
+      <c r="A242" s="6">
         <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243">
+      <c r="A243" s="6">
         <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244">
+      <c r="A244" s="6">
         <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245">
+      <c r="A245" s="6">
         <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246">
+      <c r="A246" s="6">
         <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247">
+      <c r="A247" s="6">
         <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248">
+      <c r="A248" s="6">
         <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249">
+      <c r="A249" s="6">
         <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250">
+      <c r="A250" s="6">
         <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251">
+      <c r="A251" s="6">
         <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252">
+      <c r="A252" s="6">
         <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253">
+      <c r="A253" s="6">
         <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254">
+      <c r="A254" s="6">
         <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255">
+      <c r="A255" s="6">
         <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256">
+      <c r="A256" s="6">
         <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257">
+      <c r="A257" s="6">
         <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258">
+      <c r="A258" s="6">
         <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259">
+      <c r="A259" s="6">
         <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260">
+      <c r="A260" s="6">
         <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261">
+      <c r="A261" s="6">
         <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262">
+      <c r="A262" s="6">
         <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263">
+      <c r="A263" s="6">
         <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264">
+      <c r="A264" s="6">
         <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265">
+      <c r="A265" s="6">
         <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266">
+      <c r="A266" s="6">
         <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267">
+      <c r="A267" s="6">
         <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268">
+      <c r="A268" s="6">
         <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269">
+      <c r="A269" s="6">
         <v>268</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270">
+      <c r="A270" s="6">
         <v>269</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271">
+      <c r="A271" s="6">
         <v>270</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272">
+      <c r="A272" s="6">
         <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273">
+      <c r="A273" s="6">
         <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274">
+      <c r="A274" s="6">
         <v>273</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275">
+      <c r="A275" s="6">
         <v>274</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276">
+      <c r="A276" s="6">
         <v>275</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277">
+      <c r="A277" s="6">
         <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278">
+      <c r="A278" s="6">
         <v>277</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279">
+      <c r="A279" s="6">
         <v>278</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280">
+      <c r="A280" s="6">
         <v>279</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281">
+      <c r="A281" s="6">
         <v>280</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282">
+      <c r="A282" s="6">
         <v>281</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283">
+      <c r="A283" s="6">
         <v>282</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284">
+      <c r="A284" s="6">
         <v>283</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285">
+      <c r="A285" s="6">
         <v>284</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286">
+      <c r="A286" s="6">
         <v>285</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287">
+      <c r="A287" s="6">
         <v>286</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288">
+      <c r="A288" s="6">
         <v>287</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289">
+      <c r="A289" s="6">
         <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290">
+      <c r="A290" s="6">
         <v>289</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291">
+      <c r="A291" s="6">
         <v>290</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292">
+      <c r="A292" s="6">
         <v>291</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293">
+      <c r="A293" s="6">
         <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294">
+      <c r="A294" s="6">
         <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295">
+      <c r="A295" s="6">
         <v>294</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296">
+      <c r="A296" s="6">
         <v>295</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297">
+      <c r="A297" s="6">
         <v>296</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298">
+      <c r="A298" s="6">
         <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299">
+      <c r="A299" s="6">
         <v>298</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300">
+      <c r="A300" s="6">
         <v>299</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301">
+      <c r="A301" s="6">
         <v>300</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302">
+      <c r="A302" s="6">
         <v>301</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303">
+      <c r="A303" s="6">
         <v>302</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304">
+      <c r="A304" s="6">
         <v>303</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305">
+      <c r="A305" s="6">
         <v>304</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306">
+      <c r="A306" s="6">
         <v>305</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307">
+      <c r="A307" s="6">
         <v>306</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308">
+      <c r="A308" s="6">
         <v>307</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309">
+      <c r="A309" s="6">
         <v>308</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310">
+      <c r="A310" s="6">
         <v>309</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311">
+      <c r="A311" s="6">
         <v>310</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312">
+      <c r="A312" s="6">
         <v>311</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313">
+      <c r="A313" s="6">
         <v>312</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314">
+      <c r="A314" s="6">
         <v>313</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315">
+      <c r="A315" s="6">
         <v>314</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316">
+      <c r="A316" s="6">
         <v>315</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317">
+      <c r="A317" s="6">
         <v>316</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318">
+      <c r="A318" s="6">
         <v>317</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319">
+      <c r="A319" s="6">
         <v>318</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320">
+      <c r="A320" s="6">
         <v>319</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321">
+      <c r="A321" s="6">
         <v>320</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322">
+      <c r="A322" s="6">
         <v>321</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323">
+      <c r="A323" s="6">
         <v>322</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324">
+      <c r="A324" s="6">
         <v>323</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325">
+      <c r="A325" s="6">
         <v>324</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326">
+      <c r="A326" s="6">
         <v>325</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327">
+      <c r="A327" s="6">
         <v>326</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328">
+      <c r="A328" s="6">
         <v>327</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329">
+      <c r="A329" s="6">
         <v>328</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330">
+      <c r="A330" s="6">
         <v>329</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331">
+      <c r="A331" s="6">
         <v>330</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332">
+      <c r="A332" s="6">
         <v>331</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333">
+      <c r="A333" s="6">
         <v>332</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334">
+      <c r="A334" s="6">
         <v>333</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335">
+      <c r="A335" s="6">
         <v>334</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336">
+      <c r="A336" s="6">
         <v>335</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337">
+      <c r="A337" s="6">
         <v>336</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338">
+      <c r="A338" s="6">
         <v>337</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339">
+      <c r="A339" s="6">
         <v>338</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340">
+      <c r="A340" s="6">
         <v>339</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341">
+      <c r="A341" s="6">
         <v>340</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342">
+      <c r="A342" s="6">
         <v>341</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343">
+      <c r="A343" s="6">
         <v>342</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344">
+      <c r="A344" s="6">
         <v>343</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345">
+      <c r="A345" s="6">
         <v>344</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346">
+      <c r="A346" s="6">
         <v>345</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347">
+      <c r="A347" s="6">
         <v>346</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348">
+      <c r="A348" s="6">
         <v>347</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349">
+      <c r="A349" s="6">
         <v>348</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350">
+      <c r="A350" s="6">
         <v>349</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351">
+      <c r="A351" s="6">
         <v>350</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352">
+      <c r="A352" s="6">
         <v>351</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353">
+      <c r="A353" s="6">
         <v>352</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354">
+      <c r="A354" s="6">
         <v>353</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355">
+      <c r="A355" s="6">
         <v>354</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356">
+      <c r="A356" s="6">
         <v>355</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357">
+      <c r="A357" s="6">
         <v>356</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358">
+      <c r="A358" s="6">
         <v>357</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359">
+      <c r="A359" s="6">
         <v>358</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360">
+      <c r="A360" s="6">
         <v>359</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361">
+      <c r="A361" s="6">
         <v>360</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362">
+      <c r="A362" s="6">
         <v>361</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363">
+      <c r="A363" s="6">
         <v>362</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364">
+      <c r="A364" s="6">
         <v>363</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365">
+      <c r="A365" s="6">
         <v>364</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366">
+      <c r="A366" s="6">
         <v>365</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367">
+      <c r="A367" s="6">
         <v>366</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368">
+      <c r="A368" s="6">
         <v>367</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369">
+      <c r="A369" s="6">
         <v>368</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370">
+      <c r="A370" s="6">
         <v>369</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371">
+      <c r="A371" s="6">
         <v>370</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372">
+      <c r="A372" s="6">
         <v>371</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373">
+      <c r="A373" s="6">
         <v>372</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374">
+      <c r="A374" s="6">
         <v>373</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375">
+      <c r="A375" s="6">
         <v>374</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376">
+      <c r="A376" s="6">
         <v>375</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377">
+      <c r="A377" s="6">
         <v>376</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378">
+      <c r="A378" s="6">
         <v>377</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379">
+      <c r="A379" s="6">
         <v>378</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380">
+      <c r="A380" s="6">
         <v>379</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381">
+      <c r="A381" s="6">
         <v>380</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382">
+      <c r="A382" s="6">
         <v>381</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383">
+      <c r="A383" s="6">
         <v>382</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384">
+      <c r="A384" s="6">
         <v>383</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385">
+      <c r="A385" s="6">
         <v>384</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386">
+      <c r="A386" s="6">
         <v>385</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387">
+      <c r="A387" s="6">
         <v>386</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388">
+      <c r="A388" s="6">
         <v>387</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389">
+      <c r="A389" s="6">
         <v>388</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390">
+      <c r="A390" s="6">
         <v>389</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391">
+      <c r="A391" s="6">
         <v>390</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392">
+      <c r="A392" s="6">
         <v>391</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393">
+      <c r="A393" s="6">
         <v>392</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394">
+      <c r="A394" s="6">
         <v>393</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395">
+      <c r="A395" s="6">
         <v>394</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396">
+      <c r="A396" s="6">
         <v>395</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397">
+      <c r="A397" s="6">
         <v>396</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398">
+      <c r="A398" s="6">
         <v>397</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399">
+      <c r="A399" s="6">
         <v>398</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400">
+      <c r="A400" s="6">
         <v>399</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401">
+      <c r="A401" s="6">
         <v>400</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402">
+      <c r="A402" s="6">
         <v>401</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403">
+      <c r="A403" s="6">
         <v>402</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404">
+      <c r="A404" s="6">
         <v>403</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405">
+      <c r="A405" s="6">
         <v>404</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406">
+      <c r="A406" s="6">
         <v>405</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407">
+      <c r="A407" s="6">
         <v>406</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408">
+      <c r="A408" s="6">
         <v>407</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409">
+      <c r="A409" s="6">
         <v>408</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410">
+      <c r="A410" s="6">
         <v>409</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411">
+      <c r="A411" s="6">
         <v>410</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412">
+      <c r="A412" s="6">
         <v>411</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413">
+      <c r="A413" s="6">
         <v>412</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414">
+      <c r="A414" s="6">
         <v>413</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415">
+      <c r="A415" s="6">
         <v>414</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416">
+      <c r="A416" s="6">
         <v>415</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417">
+      <c r="A417" s="6">
         <v>416</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418">
+      <c r="A418" s="6">
         <v>417</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419">
+      <c r="A419" s="6">
         <v>418</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420">
+      <c r="A420" s="6">
         <v>419</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421">
+      <c r="A421" s="6">
         <v>420</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422">
+      <c r="A422" s="6">
         <v>421</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423">
+      <c r="A423" s="6">
         <v>422</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424">
+      <c r="A424" s="6">
         <v>423</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425">
+      <c r="A425" s="6">
         <v>424</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426">
+      <c r="A426" s="6">
         <v>425</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427">
+      <c r="A427" s="6">
         <v>426</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428">
+      <c r="A428" s="6">
         <v>427</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429">
+      <c r="A429" s="6">
         <v>428</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430">
+      <c r="A430" s="6">
         <v>429</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431">
+      <c r="A431" s="6">
         <v>430</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432">
+      <c r="A432" s="6">
         <v>431</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433">
+      <c r="A433" s="6">
         <v>432</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434">
+      <c r="A434" s="6">
         <v>433</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435">
+      <c r="A435" s="6">
         <v>434</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436">
+      <c r="A436" s="6">
         <v>435</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437">
+      <c r="A437" s="6">
         <v>436</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438">
+      <c r="A438" s="6">
         <v>437</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439">
+      <c r="A439" s="6">
         <v>438</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440">
+      <c r="A440" s="6">
         <v>439</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441">
+      <c r="A441" s="6">
         <v>440</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442">
+      <c r="A442" s="6">
         <v>441</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443">
+      <c r="A443" s="6">
         <v>442</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444">
+      <c r="A444" s="6">
         <v>443</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445">
+      <c r="A445" s="6">
         <v>444</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446">
+      <c r="A446" s="6">
         <v>445</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447">
+      <c r="A447" s="6">
         <v>446</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448">
+      <c r="A448" s="6">
         <v>447</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449">
+      <c r="A449" s="6">
         <v>448</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450">
+      <c r="A450" s="6">
         <v>449</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451">
+      <c r="A451" s="6">
         <v>450</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452">
+      <c r="A452" s="6">
         <v>451</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453">
+      <c r="A453" s="6">
         <v>452</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454">
+      <c r="A454" s="6">
         <v>453</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455">
+      <c r="A455" s="6">
         <v>454</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456">
+      <c r="A456" s="6">
         <v>455</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457">
+      <c r="A457" s="6">
         <v>456</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458">
+      <c r="A458" s="6">
         <v>457</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459">
+      <c r="A459" s="6">
         <v>458</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460">
+      <c r="A460" s="6">
         <v>459</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461">
+      <c r="A461" s="6">
         <v>460</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462">
+      <c r="A462" s="6">
         <v>461</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463">
+      <c r="A463" s="6">
         <v>462</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464">
+      <c r="A464" s="6">
         <v>463</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465">
+      <c r="A465" s="6">
         <v>464</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466">
+      <c r="A466" s="6">
         <v>465</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467">
+      <c r="A467" s="6">
         <v>466</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468">
+      <c r="A468" s="6">
         <v>467</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469">
+      <c r="A469" s="6">
         <v>468</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470">
+      <c r="A470" s="6">
         <v>469</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471">
+      <c r="A471" s="6">
         <v>470</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472">
+      <c r="A472" s="6">
         <v>471</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473">
+      <c r="A473" s="6">
         <v>472</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474">
+      <c r="A474" s="6">
         <v>473</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475">
+      <c r="A475" s="6">
         <v>474</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476">
+      <c r="A476" s="6">
         <v>475</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477">
+      <c r="A477" s="6">
         <v>476</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478">
+      <c r="A478" s="6">
         <v>477</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479">
+      <c r="A479" s="6">
         <v>478</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480">
+      <c r="A480" s="6">
         <v>479</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481">
+      <c r="A481" s="6">
         <v>480</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482">
+      <c r="A482" s="6">
         <v>481</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483">
+      <c r="A483" s="6">
         <v>482</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484">
+      <c r="A484" s="6">
         <v>483</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485">
+      <c r="A485" s="6">
         <v>484</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486">
+      <c r="A486" s="6">
         <v>485</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487">
+      <c r="A487" s="6">
         <v>486</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488">
+      <c r="A488" s="6">
         <v>487</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489">
+      <c r="A489" s="6">
         <v>488</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490">
+      <c r="A490" s="6">
         <v>489</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491">
+      <c r="A491" s="6">
         <v>490</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492">
+      <c r="A492" s="6">
         <v>491</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493">
+      <c r="A493" s="6">
         <v>492</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494">
+      <c r="A494" s="6">
         <v>493</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495">
+      <c r="A495" s="6">
         <v>494</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496">
+      <c r="A496" s="6">
         <v>495</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497">
+      <c r="A497" s="6">
         <v>496</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498">
+      <c r="A498" s="6">
         <v>497</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499">
+      <c r="A499" s="6">
         <v>498</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500">
+      <c r="A500" s="6">
         <v>499</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501">
+      <c r="A501" s="6">
         <v>500</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502">
+      <c r="A502" s="6">
         <v>501</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503">
+      <c r="A503" s="6">
         <v>502</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504">
+      <c r="A504" s="6">
         <v>503</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505">
+      <c r="A505" s="6">
         <v>504</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506">
+      <c r="A506" s="6">
         <v>505</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507">
+      <c r="A507" s="6">
         <v>506</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508">
+      <c r="A508" s="6">
         <v>507</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509">
+      <c r="A509" s="6">
         <v>508</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510">
+      <c r="A510" s="6">
         <v>509</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511">
+      <c r="A511" s="6">
         <v>510</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512">
+      <c r="A512" s="6">
         <v>511</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513">
+      <c r="A513" s="6">
         <v>512</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514">
+      <c r="A514" s="6">
         <v>513</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515">
+      <c r="A515" s="6">
         <v>514</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516">
+      <c r="A516" s="6">
         <v>515</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517">
+      <c r="A517" s="6">
         <v>516</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518">
+      <c r="A518" s="6">
         <v>517</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519">
+      <c r="A519" s="6">
         <v>518</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520">
+      <c r="A520" s="6">
         <v>519</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521">
+      <c r="A521" s="6">
         <v>520</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522">
+      <c r="A522" s="6">
         <v>521</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523">
+      <c r="A523" s="6">
         <v>522</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524">
+      <c r="A524" s="6">
         <v>523</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525">
+      <c r="A525" s="6">
         <v>524</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526">
+      <c r="A526" s="6">
         <v>525</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527">
+      <c r="A527" s="6">
         <v>526</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528">
+      <c r="A528" s="6">
         <v>527</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529">
+      <c r="A529" s="6">
         <v>528</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530">
+      <c r="A530" s="6">
         <v>529</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531">
+      <c r="A531" s="6">
         <v>530</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532">
+      <c r="A532" s="6">
         <v>531</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533">
+      <c r="A533" s="6">
         <v>532</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534">
+      <c r="A534" s="6">
         <v>533</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535">
+      <c r="A535" s="6">
         <v>534</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536">
+      <c r="A536" s="6">
         <v>535</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537">
+      <c r="A537" s="6">
         <v>536</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538">
+      <c r="A538" s="6">
         <v>537</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539">
+      <c r="A539" s="6">
         <v>538</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540">
+      <c r="A540" s="6">
         <v>539</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541">
+      <c r="A541" s="6">
         <v>540</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542">
+      <c r="A542" s="6">
         <v>541</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543">
+      <c r="A543" s="6">
         <v>542</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544">
+      <c r="A544" s="6">
         <v>543</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545">
+      <c r="A545" s="6">
         <v>544</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546">
+      <c r="A546" s="6">
         <v>545</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547">
+      <c r="A547" s="6">
         <v>546</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548">
+      <c r="A548" s="6">
         <v>547</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549">
+      <c r="A549" s="6">
         <v>548</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550">
+      <c r="A550" s="6">
         <v>549</v>
       </c>
     </row>
@@ -3488,154 +3733,365 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D9048A-2A84-4417-B532-6BF062B3741B}">
-  <dimension ref="A1:H196"/>
+  <dimension ref="A1:L196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="8">
+        <v>27004</v>
+      </c>
+      <c r="H2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="8">
+        <v>26505</v>
+      </c>
+      <c r="H3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="8">
+        <v>26894</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="8">
+        <v>33298</v>
+      </c>
+      <c r="H5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="8">
+        <v>31084</v>
+      </c>
+      <c r="H6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="8">
+        <v>34772</v>
+      </c>
+      <c r="H7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="8">
+        <v>31980</v>
+      </c>
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4541,9 +4997,24 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F201" xr:uid="{962003AE-3AD2-4D2B-A8BA-0550CA029FB4}">
       <formula1>LOCALE</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H201" xr:uid="{2781A587-E0B8-412C-B53A-8513E2A7FFD3}">
+      <formula1>EDUCATION</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I201" xr:uid="{81D904E3-74DC-48D3-B0D6-476AA6E7C172}">
+      <formula1>EMPLOYMENT</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J201" xr:uid="{F0A8031B-53FD-4A29-950C-9B9AEAFBC01E}">
+      <formula1>OCCUPATION</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K202" xr:uid="{DFFB11FE-4210-4E39-9F4D-FB34AAF8A67B}">
+      <formula1>GENDER</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L201" xr:uid="{6821A322-3825-4736-99F0-39A8B72D746F}">
+      <formula1>SEXUALITY</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4554,8 +5025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB52E31-61D3-421D-9695-39338102F5F1}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4568,104 +5039,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D2" s="7">
         <v>7000</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D3" s="7">
         <v>2000</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7">
         <v>30000</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7">
         <v>3000</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7">
         <v>8000</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4678,7 +5149,7 @@
   <dimension ref="A1:D720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4689,13 +5160,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4703,7 +5174,7 @@
         <v>0.75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4711,7 +5182,7 @@
         <v>0.75069444444444444</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4719,7 +5190,7 @@
         <v>0.75138888888888899</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4727,7 +5198,7 @@
         <v>0.75208333333333299</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4735,7 +5206,7 @@
         <v>0.75277777777777799</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4743,7 +5214,7 @@
         <v>0.75347222222222199</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4751,7 +5222,7 @@
         <v>0.75416666666666698</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4759,7 +5230,7 @@
         <v>0.75486111111111098</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4767,7 +5238,7 @@
         <v>0.75555555555555598</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4775,7 +5246,7 @@
         <v>0.75624999999999998</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4783,13 +5254,13 @@
         <v>0.75694444444444398</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4797,7 +5268,7 @@
         <v>0.75763888888888897</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4805,7 +5276,7 @@
         <v>0.75833333333333297</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4813,7 +5284,7 @@
         <v>0.75902777777777797</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -4821,7 +5292,7 @@
         <v>0.75972222222222197</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
@@ -4829,7 +5300,7 @@
         <v>0.76041666666666696</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8121,7 +8592,7 @@
   <dimension ref="A1:D601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8133,13 +8604,13 @@
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -12951,4 +13422,3414 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4D4AA5-9BAB-49F8-B550-5AAC43785C90}">
+  <dimension ref="A1:D720"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0.75069444444444444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>0.75138888888888899</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>0.75208333333333299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>0.75277777777777799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>0.75347222222222199</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>0.75416666666666698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>0.75486111111111098</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>0.75555555555555598</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>0.75694444444444398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>0.75763888888888897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>0.75833333333333297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>0.75902777777777797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>0.75972222222222197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>0.76041666666666696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>0.76111111111111096</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>0.76180555555555596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>0.76249999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>0.76319444444444395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>0.76388888888888895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>0.76458333333333295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>0.76527777777777795</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>0.76597222222222205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>0.76666666666666705</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>0.76736111111111105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>0.76805555555555505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>0.76875000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>0.76944444444444404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>0.77013888888888904</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>0.77083333333333304</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>0.77152777777777803</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>0.77222222222222203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>0.77291666666666703</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>0.77361111111111103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>0.77430555555555503</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>0.77569444444444402</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>0.77638888888888902</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>0.77708333333333302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>0.77777777777777801</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>0.77847222222222201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>0.77916666666666701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>0.77986111111111101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>0.780555555555555</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>0.78125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>0.781944444444444</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>0.78263888888888899</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>0.78333333333333299</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>0.78402777777777799</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>0.78472222222222199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>0.78541666666666698</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>0.78611111111111098</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>0.78680555555555498</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>0.78749999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>0.78819444444444398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>0.78888888888888897</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>0.78958333333333297</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>0.79027777777777797</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>0.79097222222222197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>0.79166666666666696</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>0.79236111111111096</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>0.79305555555555496</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>0.79374999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>0.79444444444444395</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>0.79513888888888895</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>0.79583333333333295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>0.79652777777777795</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>0.79722222222222205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>0.79791666666666605</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>0.79861111111111105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>0.79930555555555505</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>0.80069444444444404</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>0.80138888888888904</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>0.80208333333333304</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>0.80277777777777803</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>0.80347222222222203</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>0.80416666666666603</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>0.80486111111111103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>0.80555555555555503</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>0.80625000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>0.80694444444444402</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>0.80763888888888902</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>0.80833333333333302</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>0.80902777777777801</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>0.80972222222222201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>0.81041666666666601</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>0.81111111111111101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>0.811805555555555</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>0.813194444444444</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>0.81388888888888899</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>0.81458333333333299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>0.81527777777777799</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>0.81597222222222199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>0.81666666666666599</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>0.81736111111111098</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>0.81805555555555498</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>0.81874999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>0.81944444444444398</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>0.82013888888888897</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>0.82083333333333297</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>0.82152777777777797</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>0.82222222222222197</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>0.82291666666666596</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>0.82361111111111096</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>0.82430555555555496</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>0.82569444444444395</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>0.82638888888888895</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>0.82708333333333295</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>0.82777777777777795</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>0.82847222222222205</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>0.82916666666666605</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>0.82986111111111105</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>0.83055555555555505</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>0.83125000000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>0.83194444444444404</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>0.83263888888888904</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>0.83402777777777704</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>0.83472222222222203</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>0.83541666666666603</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>0.83611111111111103</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>0.83680555555555503</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>0.83750000000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>0.83819444444444402</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>0.83888888888888902</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>0.83958333333333302</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>0.84027777777777701</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>0.84097222222222201</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>0.84166666666666601</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>0.84236111111111101</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>0.843055555555555</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>0.84375</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>0.844444444444444</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>0.84513888888888899</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>0.84583333333333299</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>0.84652777777777699</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>0.84722222222222199</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>0.84791666666666599</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>0.84861111111111098</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>0.84930555555555498</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>0.85069444444444398</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>0.85138888888888897</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>0.85208333333333297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>0.85277777777777697</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>0.85347222222222197</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>0.85416666666666596</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>0.85486111111111096</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>0.85555555555555496</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>0.85624999999999996</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>0.85694444444444395</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>0.85763888888888895</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>0.85833333333333295</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>0.85902777777777695</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>0.85972222222222205</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>0.86041666666666605</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>0.86111111111111105</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>0.86180555555555505</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>0.86250000000000004</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>0.86319444444444404</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>0.86388888888888804</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>0.86458333333333304</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>0.86527777777777704</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>0.86597222222222203</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>0.86666666666666603</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>0.86736111111111103</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>0.86805555555555503</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>0.86875000000000002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>0.86944444444444402</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>0.87013888888888802</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>0.87083333333333302</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>0.87152777777777701</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>0.87222222222222201</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>0.87291666666666601</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>0.87361111111111101</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>0.874305555555555</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>0.875694444444444</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>0.876388888888888</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>0.87708333333333299</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>0.87777777777777699</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>0.87847222222222199</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>0.87916666666666599</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>0.87986111111111098</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>0.88055555555555498</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>0.88124999999999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>0.88194444444444398</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>0.88263888888888797</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>0.88333333333333297</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>0.88402777777777697</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>0.88472222222222197</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>0.88541666666666596</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>0.88611111111111096</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>0.88680555555555496</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>0.88749999999999996</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>0.88819444444444395</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>0.88888888888888795</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>0.88958333333333295</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>0.89027777777777695</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>0.89097222222222205</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <v>0.89166666666666605</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>0.89236111111111105</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3">
+        <v>0.89305555555555505</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3">
+        <v>0.89374999999999905</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3">
+        <v>0.89444444444444404</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3">
+        <v>0.89513888888888804</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3">
+        <v>0.89583333333333304</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3">
+        <v>0.89652777777777704</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3">
+        <v>0.89722222222222203</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3">
+        <v>0.89791666666666603</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="3">
+        <v>0.89861111111111103</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="3">
+        <v>0.89930555555555503</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3">
+        <v>0.89999999999999902</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3">
+        <v>0.90069444444444402</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="3">
+        <v>0.90138888888888802</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3">
+        <v>0.90208333333333302</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="3">
+        <v>0.90277777777777701</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="3">
+        <v>0.90347222222222201</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="3">
+        <v>0.90416666666666601</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3">
+        <v>0.90486111111111101</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="3">
+        <v>0.905555555555555</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3">
+        <v>0.906249999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="3">
+        <v>0.906944444444444</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="3">
+        <v>0.907638888888888</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="3">
+        <v>0.90833333333333299</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="3">
+        <v>0.90902777777777699</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="3">
+        <v>0.90972222222222199</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3">
+        <v>0.91041666666666599</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="3">
+        <v>0.91111111111111098</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3">
+        <v>0.91180555555555498</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3">
+        <v>0.91249999999999898</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="3">
+        <v>0.91319444444444398</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="3">
+        <v>0.91388888888888797</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="3">
+        <v>0.91458333333333297</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="3">
+        <v>0.91527777777777697</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="3">
+        <v>0.91597222222222197</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="3">
+        <v>0.91666666666666596</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="3">
+        <v>0.91736111111111096</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="3">
+        <v>0.91805555555555496</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="3">
+        <v>0.91874999999999896</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="3">
+        <v>0.91944444444444395</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3">
+        <v>0.92013888888888795</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="3">
+        <v>0.92083333333333295</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="3">
+        <v>0.92152777777777695</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="3">
+        <v>0.92222222222222205</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="3">
+        <v>0.92291666666666605</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="3">
+        <v>0.92361111111111005</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="3">
+        <v>0.92430555555555505</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="3">
+        <v>0.92499999999999905</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="3">
+        <v>0.92569444444444404</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="3">
+        <v>0.92638888888888804</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="3">
+        <v>0.92708333333333304</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="3">
+        <v>0.92777777777777704</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="3">
+        <v>0.92847222222222203</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="3">
+        <v>0.92916666666666603</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="3">
+        <v>0.92986111111111003</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="3">
+        <v>0.93055555555555503</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="3">
+        <v>0.93124999999999902</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="3">
+        <v>0.93194444444444402</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="3">
+        <v>0.93263888888888802</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="3">
+        <v>0.93333333333333302</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3">
+        <v>0.93402777777777701</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="3">
+        <v>0.93472222222222201</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="3">
+        <v>0.93541666666666601</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="3">
+        <v>0.93611111111111001</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="3">
+        <v>0.936805555555555</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="3">
+        <v>0.937499999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="3">
+        <v>0.938194444444444</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3">
+        <v>0.938888888888888</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="3">
+        <v>0.93958333333333299</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="3">
+        <v>0.94027777777777699</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3">
+        <v>0.94097222222222199</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3">
+        <v>0.94166666666666599</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="3">
+        <v>0.94236111111110998</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="3">
+        <v>0.94305555555555498</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="3">
+        <v>0.94374999999999898</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="3">
+        <v>0.94444444444444398</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="3">
+        <v>0.94513888888888797</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="3">
+        <v>0.94583333333333297</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="3">
+        <v>0.94652777777777697</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="3">
+        <v>0.94722222222222197</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="3">
+        <v>0.94791666666666596</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="3">
+        <v>0.94861111111110996</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="3">
+        <v>0.94930555555555496</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="3">
+        <v>0.94999999999999896</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="3">
+        <v>0.95069444444444395</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="3">
+        <v>0.95138888888888795</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="3">
+        <v>0.95208333333333295</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="3">
+        <v>0.95277777777777695</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="3">
+        <v>0.95347222222222106</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="3">
+        <v>0.95416666666666605</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="3">
+        <v>0.95486111111111005</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="3">
+        <v>0.95555555555555505</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3">
+        <v>0.95624999999999905</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="3">
+        <v>0.95694444444444404</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="3">
+        <v>0.95763888888888804</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="3">
+        <v>0.95833333333333304</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="3">
+        <v>0.95902777777777704</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="3">
+        <v>0.95972222222222103</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="3">
+        <v>0.96041666666666603</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="3">
+        <v>0.96111111111111003</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="3">
+        <v>0.96180555555555503</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="3">
+        <v>0.96249999999999902</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3">
+        <v>0.96319444444444402</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="3">
+        <v>0.96388888888888802</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="3">
+        <v>0.96458333333333302</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="3">
+        <v>0.96527777777777701</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="3">
+        <v>0.96597222222222101</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="3">
+        <v>0.96666666666666601</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="3">
+        <v>0.96736111111111001</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="3">
+        <v>0.968055555555555</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="3">
+        <v>0.968749999999999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="3">
+        <v>0.969444444444444</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="3">
+        <v>0.970138888888888</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="3">
+        <v>0.97083333333333299</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="3">
+        <v>0.97152777777777699</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="3">
+        <v>0.97222222222222099</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="3">
+        <v>0.97291666666666599</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="3">
+        <v>0.97361111111110998</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="3">
+        <v>0.97430555555555498</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="3">
+        <v>0.97499999999999898</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="3">
+        <v>0.97569444444444398</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="3">
+        <v>0.97638888888888797</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="3">
+        <v>0.97708333333333297</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="3">
+        <v>0.97777777777777697</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="3">
+        <v>0.97847222222222097</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="3">
+        <v>0.97916666666666596</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="3">
+        <v>0.97986111111110996</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="3">
+        <v>0.98055555555555496</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="3">
+        <v>0.98124999999999896</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="3">
+        <v>0.98194444444444395</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="3">
+        <v>0.98263888888888795</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="3">
+        <v>0.98333333333333295</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="3">
+        <v>0.98402777777777695</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="3">
+        <v>0.98472222222222106</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="3">
+        <v>0.98541666666666605</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="3">
+        <v>0.98611111111111005</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="3">
+        <v>0.98680555555555505</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="3">
+        <v>0.98749999999999905</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="3">
+        <v>0.98819444444444404</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="3">
+        <v>0.98888888888888804</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="3">
+        <v>0.98958333333333204</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="3">
+        <v>0.99027777777777704</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="3">
+        <v>0.99097222222222103</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="3">
+        <v>0.99166666666666603</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="3">
+        <v>0.99236111111111003</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="3">
+        <v>0.99305555555555503</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="3">
+        <v>0.99374999999999902</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="3">
+        <v>0.99444444444444402</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="3">
+        <v>0.99513888888888802</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="3">
+        <v>0.99583333333333202</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="3">
+        <v>0.99652777777777701</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="3">
+        <v>0.99722222222222101</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="3">
+        <v>0.99791666666666601</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="3">
+        <v>0.99861111111111001</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="3">
+        <v>0.999305555555555</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="3">
+        <v>0.999999999999999</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="3">
+        <v>1.0006944444444399</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="3">
+        <v>1.00138888888889</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="3">
+        <v>1.0020833333333301</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="3">
+        <v>1.00277777777778</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="3">
+        <v>1.0034722222222201</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="3">
+        <v>1.00416666666667</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="3">
+        <v>1.0048611111111101</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="3">
+        <v>1.00555555555556</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="3">
+        <v>1.0062500000000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="3">
+        <v>1.00694444444444</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="3">
+        <v>1.0076388888888901</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="3">
+        <v>1.00833333333333</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="3">
+        <v>1.0090277777777801</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="3">
+        <v>1.00972222222222</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="3">
+        <v>1.0104166666666701</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="3">
+        <v>1.01111111111111</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="3">
+        <v>1.0118055555555501</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="3">
+        <v>1.0125</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="3">
+        <v>1.0131944444444401</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="3">
+        <v>1.0138888888888899</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="3">
+        <v>1.0145833333333301</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="3">
+        <v>1.0152777777777799</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="3">
+        <v>1.0159722222222201</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="3">
+        <v>1.0166666666666699</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="3">
+        <v>1.0173611111111101</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="3">
+        <v>1.0180555555555599</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="3">
+        <v>1.01875</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="3">
+        <v>1.0194444444444399</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="3">
+        <v>1.02013888888889</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="3">
+        <v>1.0208333333333299</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="3">
+        <v>1.02152777777778</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="3">
+        <v>1.0222222222222199</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="3">
+        <v>1.02291666666667</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="3">
+        <v>1.0236111111111099</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="3">
+        <v>1.02430555555555</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="3">
+        <v>1.0249999999999999</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="3">
+        <v>1.02569444444444</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="3">
+        <v>1.0263888888888899</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="3">
+        <v>1.02708333333333</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="3">
+        <v>1.0277777777777799</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="3">
+        <v>1.02847222222222</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="3">
+        <v>1.0291666666666699</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="3">
+        <v>1.02986111111111</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="3">
+        <v>1.0305555555555601</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="3">
+        <v>1.03125</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="3">
+        <v>1.0319444444444399</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="3">
+        <v>1.03263888888889</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="3">
+        <v>1.0333333333333301</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="3">
+        <v>1.03402777777778</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="3">
+        <v>1.0347222222222201</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="3">
+        <v>1.03541666666667</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="3">
+        <v>1.0361111111111101</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="3">
+        <v>1.03680555555556</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="3">
+        <v>1.0375000000000001</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="3">
+        <v>1.03819444444444</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="3">
+        <v>1.0388888888888901</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="3">
+        <v>1.03958333333333</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="3">
+        <v>1.0402777777777801</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="3">
+        <v>1.04097222222222</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="3">
+        <v>1.0416666666666701</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="3">
+        <v>1.04236111111111</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="3">
+        <v>1.0430555555555501</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="3">
+        <v>1.04375</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="3">
+        <v>1.0444444444444401</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="3">
+        <v>1.0451388888888899</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="3">
+        <v>1.0458333333333301</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="3">
+        <v>1.0465277777777799</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="3">
+        <v>1.0472222222222201</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="3">
+        <v>1.0479166666666699</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="3">
+        <v>1.0486111111111101</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="3">
+        <v>1.0493055555555499</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="3">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="3">
+        <v>1.0506944444444399</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="3">
+        <v>1.05138888888889</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="3">
+        <v>1.0520833333333299</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="3">
+        <v>1.05277777777778</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="3">
+        <v>1.0534722222222199</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="3">
+        <v>1.05416666666667</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="3">
+        <v>1.0548611111111099</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="3">
+        <v>1.05555555555555</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="3">
+        <v>1.0562499999999999</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="3">
+        <v>1.05694444444444</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="3">
+        <v>1.0576388888888899</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="3">
+        <v>1.05833333333333</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="3">
+        <v>1.0590277777777799</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="3">
+        <v>1.05972222222222</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="3">
+        <v>1.0604166666666699</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="3">
+        <v>1.06111111111111</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="3">
+        <v>1.0618055555555499</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="3">
+        <v>1.0625</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="3">
+        <v>1.0631944444444399</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="3">
+        <v>1.06388888888889</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="3">
+        <v>1.0645833333333301</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="3">
+        <v>1.06527777777778</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="3">
+        <v>1.0659722222222201</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="3">
+        <v>1.06666666666667</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="3">
+        <v>1.0673611111111101</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="3">
+        <v>1.06805555555555</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="3">
+        <v>1.0687500000000001</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="3">
+        <v>1.06944444444444</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="3">
+        <v>1.0701388888888901</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="3">
+        <v>1.07083333333333</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="3">
+        <v>1.0715277777777801</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="3">
+        <v>1.07222222222222</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="3">
+        <v>1.0729166666666701</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="3">
+        <v>1.07361111111111</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="3">
+        <v>1.0743055555555501</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="3">
+        <v>1.075</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="3">
+        <v>1.0756944444444401</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="3">
+        <v>1.0763888888888899</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="3">
+        <v>1.0770833333333301</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="3">
+        <v>1.0777777777777799</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="3">
+        <v>1.0784722222222201</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="3">
+        <v>1.0791666666666699</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="3">
+        <v>1.0798611111111101</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="3">
+        <v>1.0805555555555499</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="3">
+        <v>1.08125</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="3">
+        <v>1.0819444444444399</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="3">
+        <v>1.08263888888889</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="3">
+        <v>1.0833333333333299</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="3">
+        <v>1.08402777777778</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="3">
+        <v>1.0847222222222199</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="3">
+        <v>1.08541666666666</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="3">
+        <v>1.0861111111111099</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="3">
+        <v>1.08680555555555</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="3">
+        <v>1.0874999999999999</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="3">
+        <v>1.08819444444444</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="3">
+        <v>1.0888888888888899</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="3">
+        <v>1.08958333333333</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="3">
+        <v>1.0902777777777799</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="3">
+        <v>1.09097222222222</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="3">
+        <v>1.0916666666666699</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="3">
+        <v>1.09236111111111</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="3">
+        <v>1.0930555555555499</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="3">
+        <v>1.09375</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="3">
+        <v>1.0944444444444399</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="3">
+        <v>1.09513888888889</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="3">
+        <v>1.0958333333333301</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="3">
+        <v>1.09652777777778</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="3">
+        <v>1.0972222222222201</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="3">
+        <v>1.09791666666667</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="3">
+        <v>1.0986111111111101</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="3">
+        <v>1.09930555555555</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="3">
+        <v>1.10069444444444</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="3">
+        <v>1.1013888888888901</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="3">
+        <v>1.10208333333333</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="3">
+        <v>1.1027777777777801</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="3">
+        <v>1.10347222222222</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="3">
+        <v>1.1041666666666601</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="3">
+        <v>1.10486111111111</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="3">
+        <v>1.1055555555555501</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="3">
+        <v>1.10625</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="3">
+        <v>1.1069444444444401</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="3">
+        <v>1.1076388888888899</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="3">
+        <v>1.1083333333333301</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="3">
+        <v>1.1090277777777799</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="3">
+        <v>1.1097222222222201</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="3">
+        <v>1.1104166666666699</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="3">
+        <v>1.1111111111111101</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="3">
+        <v>1.1118055555555499</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="3">
+        <v>1.1125</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="3">
+        <v>1.1131944444444399</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="3">
+        <v>1.11388888888889</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="3">
+        <v>1.1145833333333299</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="3">
+        <v>1.11527777777778</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" s="3">
+        <v>1.1159722222222199</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" s="3">
+        <v>1.11666666666666</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" s="3">
+        <v>1.1173611111111099</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" s="3">
+        <v>1.11805555555555</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" s="3">
+        <v>1.1187499999999999</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" s="3">
+        <v>1.11944444444444</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" s="3">
+        <v>1.1201388888888899</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" s="3">
+        <v>1.12083333333333</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" s="3">
+        <v>1.1215277777777799</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" s="3">
+        <v>1.12222222222222</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" s="3">
+        <v>1.1229166666666699</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" s="3">
+        <v>1.12361111111111</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" s="3">
+        <v>1.1243055555555499</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" s="3">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" s="3">
+        <v>1.1256944444444399</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" s="3">
+        <v>1.12638888888889</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" s="3">
+        <v>1.1270833333333301</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" s="3">
+        <v>1.12777777777778</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" s="3">
+        <v>1.1284722222222201</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" s="3">
+        <v>1.12916666666667</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" s="3">
+        <v>1.1298611111111101</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" s="3">
+        <v>1.13055555555555</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" s="3">
+        <v>1.1312500000000001</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" s="3">
+        <v>1.13194444444444</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" s="3">
+        <v>1.1326388888888901</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" s="3">
+        <v>1.13333333333333</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" s="3">
+        <v>1.1340277777777801</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" s="3">
+        <v>1.13472222222222</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" s="3">
+        <v>1.1354166666666601</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" s="3">
+        <v>1.13611111111111</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" s="3">
+        <v>1.1368055555555501</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" s="3">
+        <v>1.1375</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" s="3">
+        <v>1.1381944444444401</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" s="3">
+        <v>1.1388888888888899</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" s="3">
+        <v>1.1395833333333301</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" s="3">
+        <v>1.1402777777777799</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" s="3">
+        <v>1.1409722222222201</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" s="3">
+        <v>1.1416666666666699</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" s="3">
+        <v>1.1423611111111101</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" s="3">
+        <v>1.1430555555555499</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" s="3">
+        <v>1.14375</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" s="3">
+        <v>1.1444444444444399</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" s="3">
+        <v>1.14513888888889</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" s="3">
+        <v>1.1458333333333299</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" s="3">
+        <v>1.14652777777778</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" s="3">
+        <v>1.1472222222222199</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" s="3">
+        <v>1.14791666666666</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" s="3">
+        <v>1.1486111111111099</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" s="3">
+        <v>1.14930555555555</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" s="3">
+        <v>1.15069444444444</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" s="3">
+        <v>1.1513888888888899</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" s="3">
+        <v>1.15208333333333</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" s="3">
+        <v>1.1527777777777799</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" s="3">
+        <v>1.15347222222222</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" s="3">
+        <v>1.1541666666666699</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" s="3">
+        <v>1.15486111111111</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" s="3">
+        <v>1.1555555555555499</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" s="3">
+        <v>1.15625</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" s="3">
+        <v>1.1569444444444399</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" s="3">
+        <v>1.15763888888889</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" s="3">
+        <v>1.1583333333333301</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" s="3">
+        <v>1.15902777777778</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" s="3">
+        <v>1.1597222222222201</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" s="3">
+        <v>1.16041666666667</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" s="3">
+        <v>1.1611111111111101</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" s="3">
+        <v>1.16180555555555</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" s="3">
+        <v>1.1625000000000001</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" s="3">
+        <v>1.16319444444444</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" s="3">
+        <v>1.1638888888888901</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" s="3">
+        <v>1.16458333333333</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" s="3">
+        <v>1.1652777777777801</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" s="3">
+        <v>1.16597222222222</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" s="3"/>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" s="3"/>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" s="3"/>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" s="3"/>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" s="3"/>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" s="3"/>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" s="3"/>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" s="3"/>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" s="3"/>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" s="3"/>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" s="3"/>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" s="3"/>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" s="3"/>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" s="3"/>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" s="3"/>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" s="3"/>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" s="3"/>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" s="3"/>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" s="3"/>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" s="3"/>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" s="3"/>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" s="3"/>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" s="3"/>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" s="3"/>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" s="3"/>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" s="3"/>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" s="3"/>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" s="3"/>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" s="3"/>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" s="3"/>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" s="3"/>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" s="3"/>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" s="3"/>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" s="3"/>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" s="3"/>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" s="3"/>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" s="3"/>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" s="3"/>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" s="3"/>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" s="3"/>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" s="3"/>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" s="3"/>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" s="3"/>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" s="3"/>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" s="3"/>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" s="3"/>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" s="3"/>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" s="3"/>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" s="3"/>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" s="3"/>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" s="3"/>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" s="3"/>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" s="3"/>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" s="3"/>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" s="3"/>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" s="3"/>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" s="3"/>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" s="3"/>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" s="3"/>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" s="3"/>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662" s="3"/>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663" s="3"/>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" s="3"/>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" s="3"/>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666" s="3"/>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667" s="3"/>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668" s="3"/>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669" s="3"/>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670" s="3"/>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671" s="3"/>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672" s="3"/>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673" s="3"/>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674" s="3"/>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675" s="3"/>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676" s="3"/>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677" s="3"/>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" s="3"/>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679" s="3"/>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680" s="3"/>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681" s="3"/>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682" s="3"/>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683" s="3"/>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684" s="3"/>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685" s="3"/>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686" s="3"/>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687" s="3"/>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688" s="3"/>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689" s="3"/>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690" s="3"/>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691" s="3"/>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692" s="3"/>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693" s="3"/>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694" s="3"/>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695" s="3"/>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696" s="3"/>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697" s="3"/>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698" s="3"/>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699" s="3"/>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700" s="3"/>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701" s="3"/>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702" s="3"/>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703" s="3"/>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704" s="3"/>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705" s="3"/>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706" s="3"/>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707" s="3"/>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708" s="3"/>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709" s="3"/>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710" s="3"/>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711" s="3"/>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712" s="3"/>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713" s="3"/>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714" s="3"/>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715" s="3"/>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716" s="3"/>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717" s="3"/>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718" s="3"/>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719" s="3"/>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:Z1" xr:uid="{FA214472-4622-4B9C-8488-3F4640B0FFFD}">
+      <formula1>CHARNAME</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/StoryCSVs/TestCSVs/WholeWorkbook/Test_Narrative_Workbook.xlsx
+++ b/Assets/StoryCSVs/TestCSVs/WholeWorkbook/Test_Narrative_Workbook.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karimajouz/Documents/GitRepo/DataGame/DataGame/Assets/StoryCSVs/TestCSVs/WholeWorkbook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC53457-2943-6F4B-9DD5-9ECE7FB4640D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87006BB2-8401-FD46-A5DF-A6E57F24B067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" activeTab="3" xr2:uid="{C3FDA416-CBEF-4DA2-AAFE-8CA8E918681D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" activeTab="4" xr2:uid="{C3FDA416-CBEF-4DA2-AAFE-8CA8E918681D}"/>
   </bookViews>
   <sheets>
     <sheet name="TraitTable" sheetId="1" r:id="rId1"/>
     <sheet name="Characters" sheetId="4" r:id="rId2"/>
     <sheet name="Locations" sheetId="5" r:id="rId3"/>
     <sheet name="Chatlog 1A" sheetId="2" r:id="rId4"/>
-    <sheet name="Chatlog Template" sheetId="3" r:id="rId5"/>
-    <sheet name="ForumPostTemplate" sheetId="6" r:id="rId6"/>
+    <sheet name="Chatlog MuffinMan" sheetId="7" r:id="rId5"/>
+    <sheet name="Chatlog Template" sheetId="3" r:id="rId6"/>
+    <sheet name="ForumPostTemplate" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="CHARNAME">Characters!$B$2:$B$201</definedName>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -406,6 +407,52 @@
   </si>
   <si>
     <t>wtf amy?</t>
+  </si>
+  <si>
+    <t>Farquaad</t>
+  </si>
+  <si>
+    <t>Gingy</t>
+  </si>
+  <si>
+    <t># Now tell me!
+## Where are the others?</t>
+  </si>
+  <si>
+    <t># Eat me!</t>
+  </si>
+  <si>
+    <t># I've tried to be fair to you creatures.
+## Now my patience has reached it's end! Tell me or I'll…</t>
+  </si>
+  <si>
+    <t># No, no, not the buttons!
+## Not my gumdrop buttons!</t>
+  </si>
+  <si>
+    <t># All right then. Who's hiding them?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Okay
+## I'll tell you.
+### Do you know the muffin man?
+</t>
+  </si>
+  <si>
+    <t># The muffin man?</t>
+  </si>
+  <si>
+    <t># THE MUFFIN MAN!</t>
+  </si>
+  <si>
+    <t># Yes I know the muffin man.
+## Who lives on Drury Lane?</t>
+  </si>
+  <si>
+    <t># Well, she's married to the muffin man.</t>
+  </si>
+  <si>
+    <t># The muffin man.</t>
   </si>
 </sst>
 </file>
@@ -3736,7 +3783,7 @@
   <dimension ref="A1:L196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4060,10 +4107,76 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="8">
+        <v>31981</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="8">
+        <v>31982</v>
+      </c>
+      <c r="H10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -5148,8 +5261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75D9D40-B82B-4836-B9A6-01E5F8AA0E57}">
   <dimension ref="A1:D720"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8588,11 +8701,4869 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28CF1F1-F6C4-5344-AA49-CF5550407A65}">
+  <dimension ref="A1:D601"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="57.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>0.75069444444444444</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>0.75208333333333299</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>0.75277777777777799</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>0.75347222222222199</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>0.75416666666666698</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>0.75486111111111098</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>0.75555555555555598</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>0.75624999999999998</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>0.75694444444444398</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>0.75763888888888897</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>0.75833333333333297</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>0.75902777777777797</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>0.75972222222222197</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>0.76041666666666696</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>0.76111111111111096</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>0.76180555555555596</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>0.76319444444444395</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>0.76458333333333295</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>0.76527777777777795</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>0.76597222222222205</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>0.76666666666666705</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>0.76736111111111105</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>0.76805555555555505</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>0.76875000000000004</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>0.76944444444444404</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>0.77013888888888904</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>0.77152777777777803</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>0.77222222222222203</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>0.77291666666666703</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>0.77361111111111103</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>0.77430555555555503</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>0.77569444444444402</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>0.77638888888888902</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>0.77708333333333302</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>0.77777777777777801</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>0.77847222222222201</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>0.77916666666666701</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>0.77986111111111101</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>0.780555555555555</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>0.78125</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>0.781944444444444</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>0.78263888888888899</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>0.78333333333333299</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>0.78402777777777799</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>0.78472222222222199</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>0.78541666666666698</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>0.78611111111111098</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>0.78680555555555498</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>0.78819444444444398</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>0.78888888888888897</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>0.78958333333333297</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>0.79027777777777797</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>0.79097222222222197</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>0.79166666666666696</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>0.79236111111111096</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>0.79305555555555496</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>0.79374999999999996</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>0.79444444444444395</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>0.79513888888888895</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>0.79583333333333295</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>0.79652777777777795</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>0.79722222222222205</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>0.79791666666666605</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>0.79861111111111105</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>0.79930555555555505</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>0.80069444444444404</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>0.80138888888888904</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>0.80208333333333304</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>0.80277777777777803</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>0.80347222222222203</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>0.80416666666666603</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>0.80486111111111103</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>0.80555555555555503</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>0.80625000000000002</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>0.80694444444444402</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>0.80763888888888902</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>0.80833333333333302</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>0.80902777777777801</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>0.80972222222222201</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>0.81041666666666601</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>0.81111111111111101</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>0.811805555555555</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>0.813194444444444</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>0.81388888888888899</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>0.81458333333333299</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>0.81527777777777799</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>0.81597222222222199</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>0.81666666666666599</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>0.81736111111111098</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>0.81805555555555498</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>0.81874999999999998</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>0.81944444444444398</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>0.82013888888888897</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>0.82083333333333297</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>0.82152777777777797</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>0.82222222222222197</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>0.82291666666666596</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>0.82361111111111096</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>0.82430555555555496</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>0.82569444444444395</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>0.82638888888888895</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>0.82708333333333295</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>0.82777777777777795</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>0.82847222222222205</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>0.82916666666666605</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>0.82986111111111105</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>0.83055555555555505</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>0.83125000000000004</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>0.83194444444444404</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>0.83263888888888904</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>0.83402777777777704</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>0.83472222222222203</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>0.83541666666666603</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>0.83611111111111103</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>0.83680555555555503</v>
+      </c>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>0.83819444444444402</v>
+      </c>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>0.83888888888888902</v>
+      </c>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>0.83958333333333302</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>0.84027777777777701</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>0.84097222222222201</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>0.84166666666666601</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>0.84236111111111101</v>
+      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>0.843055555555555</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>0.84375</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>0.844444444444444</v>
+      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>0.84513888888888899</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>0.84583333333333299</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>0.84652777777777699</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>0.84722222222222199</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>0.84791666666666599</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>0.84861111111111098</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>0.84930555555555498</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>0.85069444444444398</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>0.85138888888888897</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>0.85208333333333297</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>0.85277777777777697</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>0.85347222222222197</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>0.85416666666666596</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>0.85486111111111096</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>0.85555555555555496</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>0.85624999999999996</v>
+      </c>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>0.85694444444444395</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>0.85763888888888895</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <v>0.85833333333333295</v>
+      </c>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <v>0.85902777777777695</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <v>0.85972222222222205</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <v>0.86041666666666605</v>
+      </c>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <v>0.86111111111111105</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <v>0.86180555555555505</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <v>0.86319444444444404</v>
+      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <v>0.86388888888888804</v>
+      </c>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <v>0.86458333333333304</v>
+      </c>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <v>0.86527777777777704</v>
+      </c>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <v>0.86597222222222203</v>
+      </c>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <v>0.86666666666666603</v>
+      </c>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <v>0.86736111111111103</v>
+      </c>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
+        <v>0.86805555555555503</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
+        <v>0.86875000000000002</v>
+      </c>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <v>0.86944444444444402</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
+        <v>0.87013888888888802</v>
+      </c>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
+        <v>0.87083333333333302</v>
+      </c>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <v>0.87152777777777701</v>
+      </c>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>0.87222222222222201</v>
+      </c>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>0.87291666666666601</v>
+      </c>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
+        <v>0.87361111111111101</v>
+      </c>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <v>0.874305555555555</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>0.875694444444444</v>
+      </c>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <v>0.876388888888888</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>0.87708333333333299</v>
+      </c>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <v>0.87777777777777699</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <v>0.87847222222222199</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>0.87916666666666599</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>0.87986111111111098</v>
+      </c>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>0.88055555555555498</v>
+      </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>0.88124999999999998</v>
+      </c>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>0.88194444444444398</v>
+      </c>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>0.88263888888888797</v>
+      </c>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>0.88333333333333297</v>
+      </c>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
+        <v>0.88402777777777697</v>
+      </c>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
+        <v>0.88472222222222197</v>
+      </c>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
+        <v>0.88541666666666596</v>
+      </c>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
+        <v>0.88611111111111096</v>
+      </c>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
+        <v>0.88680555555555496</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
+        <v>0.88819444444444395</v>
+      </c>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="3">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="3">
+        <v>0.88958333333333295</v>
+      </c>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
+        <v>0.89027777777777695</v>
+      </c>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
+        <v>0.89097222222222205</v>
+      </c>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="3">
+        <v>0.89166666666666605</v>
+      </c>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="3">
+        <v>0.89236111111111105</v>
+      </c>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="3">
+        <v>0.89305555555555505</v>
+      </c>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="3">
+        <v>0.89374999999999905</v>
+      </c>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="3">
+        <v>0.89444444444444404</v>
+      </c>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="3">
+        <v>0.89513888888888804</v>
+      </c>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="3">
+        <v>0.89583333333333304</v>
+      </c>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
+        <v>0.89652777777777704</v>
+      </c>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="3">
+        <v>0.89722222222222203</v>
+      </c>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="3">
+        <v>0.89791666666666603</v>
+      </c>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="3">
+        <v>0.89861111111111103</v>
+      </c>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="3">
+        <v>0.89930555555555503</v>
+      </c>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="3">
+        <v>0.89999999999999902</v>
+      </c>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="3">
+        <v>0.90069444444444402</v>
+      </c>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
+        <v>0.90138888888888802</v>
+      </c>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
+        <v>0.90208333333333302</v>
+      </c>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="3">
+        <v>0.90277777777777701</v>
+      </c>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="3">
+        <v>0.90347222222222201</v>
+      </c>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="3">
+        <v>0.90416666666666601</v>
+      </c>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="3">
+        <v>0.90486111111111101</v>
+      </c>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="3">
+        <v>0.905555555555555</v>
+      </c>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="3">
+        <v>0.906249999999999</v>
+      </c>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="3">
+        <v>0.906944444444444</v>
+      </c>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="3">
+        <v>0.907638888888888</v>
+      </c>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="3">
+        <v>0.90833333333333299</v>
+      </c>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="3">
+        <v>0.90902777777777699</v>
+      </c>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="3">
+        <v>0.90972222222222199</v>
+      </c>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="3">
+        <v>0.91041666666666599</v>
+      </c>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="3">
+        <v>0.91111111111111098</v>
+      </c>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="3">
+        <v>0.91180555555555498</v>
+      </c>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="3">
+        <v>0.91249999999999898</v>
+      </c>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="3">
+        <v>0.91319444444444398</v>
+      </c>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="3">
+        <v>0.91388888888888797</v>
+      </c>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="3">
+        <v>0.91458333333333297</v>
+      </c>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="3">
+        <v>0.91527777777777697</v>
+      </c>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="3">
+        <v>0.91597222222222197</v>
+      </c>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="3">
+        <v>0.91666666666666596</v>
+      </c>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" s="3">
+        <v>0.91736111111111096</v>
+      </c>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="3">
+        <v>0.91805555555555496</v>
+      </c>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="3">
+        <v>0.91874999999999896</v>
+      </c>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="3">
+        <v>0.91944444444444395</v>
+      </c>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" s="3">
+        <v>0.92013888888888795</v>
+      </c>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" s="3">
+        <v>0.92083333333333295</v>
+      </c>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" s="3">
+        <v>0.92152777777777695</v>
+      </c>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="3">
+        <v>0.92222222222222205</v>
+      </c>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="3">
+        <v>0.92291666666666605</v>
+      </c>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="3">
+        <v>0.92361111111111005</v>
+      </c>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="3">
+        <v>0.92430555555555505</v>
+      </c>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="3">
+        <v>0.92499999999999905</v>
+      </c>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="3">
+        <v>0.92569444444444404</v>
+      </c>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" s="3">
+        <v>0.92638888888888804</v>
+      </c>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="3">
+        <v>0.92708333333333304</v>
+      </c>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="3">
+        <v>0.92777777777777704</v>
+      </c>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="3">
+        <v>0.92847222222222203</v>
+      </c>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" s="3">
+        <v>0.92916666666666603</v>
+      </c>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" s="3">
+        <v>0.92986111111111003</v>
+      </c>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" s="3">
+        <v>0.93055555555555503</v>
+      </c>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" s="3">
+        <v>0.93124999999999902</v>
+      </c>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" s="3">
+        <v>0.93194444444444402</v>
+      </c>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" s="3">
+        <v>0.93263888888888802</v>
+      </c>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" s="3">
+        <v>0.93333333333333302</v>
+      </c>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" s="3">
+        <v>0.93402777777777701</v>
+      </c>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" s="3">
+        <v>0.93472222222222201</v>
+      </c>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" s="3">
+        <v>0.93541666666666601</v>
+      </c>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" s="3">
+        <v>0.93611111111111001</v>
+      </c>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" s="3">
+        <v>0.936805555555555</v>
+      </c>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" s="3">
+        <v>0.937499999999999</v>
+      </c>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="3">
+        <v>0.938194444444444</v>
+      </c>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="3">
+        <v>0.938888888888888</v>
+      </c>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" s="3">
+        <v>0.93958333333333299</v>
+      </c>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" s="3">
+        <v>0.94027777777777699</v>
+      </c>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="3">
+        <v>0.94097222222222199</v>
+      </c>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="3">
+        <v>0.94166666666666599</v>
+      </c>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="3">
+        <v>0.94236111111110998</v>
+      </c>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" s="3">
+        <v>0.94305555555555498</v>
+      </c>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" s="3">
+        <v>0.94374999999999898</v>
+      </c>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" s="3">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" s="3">
+        <v>0.94513888888888797</v>
+      </c>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" s="3">
+        <v>0.94583333333333297</v>
+      </c>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" s="3">
+        <v>0.94652777777777697</v>
+      </c>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" s="3">
+        <v>0.94722222222222197</v>
+      </c>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" s="3">
+        <v>0.94791666666666596</v>
+      </c>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" s="3">
+        <v>0.94861111111110996</v>
+      </c>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" s="3">
+        <v>0.94930555555555496</v>
+      </c>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="3">
+        <v>0.94999999999999896</v>
+      </c>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="3">
+        <v>0.95069444444444395</v>
+      </c>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" s="3">
+        <v>0.95138888888888795</v>
+      </c>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="3">
+        <v>0.95208333333333295</v>
+      </c>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" s="3">
+        <v>0.95277777777777695</v>
+      </c>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" s="3">
+        <v>0.95347222222222106</v>
+      </c>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" s="3">
+        <v>0.95416666666666605</v>
+      </c>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="3">
+        <v>0.95486111111111005</v>
+      </c>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" s="3">
+        <v>0.95555555555555505</v>
+      </c>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" s="3">
+        <v>0.95624999999999905</v>
+      </c>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" s="3">
+        <v>0.95694444444444404</v>
+      </c>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" s="3">
+        <v>0.95763888888888804</v>
+      </c>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" s="3">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" s="3">
+        <v>0.95902777777777704</v>
+      </c>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" s="3">
+        <v>0.95972222222222103</v>
+      </c>
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" s="3">
+        <v>0.96041666666666603</v>
+      </c>
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" s="3">
+        <v>0.96111111111111003</v>
+      </c>
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" s="3">
+        <v>0.96180555555555503</v>
+      </c>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" s="3">
+        <v>0.96249999999999902</v>
+      </c>
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" s="3">
+        <v>0.96319444444444402</v>
+      </c>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" s="3">
+        <v>0.96388888888888802</v>
+      </c>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" s="3">
+        <v>0.96458333333333302</v>
+      </c>
+      <c r="B311" s="1"/>
+      <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" s="3">
+        <v>0.96527777777777701</v>
+      </c>
+      <c r="B312" s="1"/>
+      <c r="C312" s="1"/>
+      <c r="D312" s="1"/>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" s="3">
+        <v>0.96597222222222101</v>
+      </c>
+      <c r="B313" s="1"/>
+      <c r="C313" s="1"/>
+      <c r="D313" s="1"/>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" s="3">
+        <v>0.96666666666666601</v>
+      </c>
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" s="3">
+        <v>0.96736111111111001</v>
+      </c>
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="1"/>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" s="3">
+        <v>0.968055555555555</v>
+      </c>
+      <c r="B316" s="1"/>
+      <c r="C316" s="1"/>
+      <c r="D316" s="1"/>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" s="3">
+        <v>0.968749999999999</v>
+      </c>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+      <c r="D317" s="1"/>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" s="3">
+        <v>0.969444444444444</v>
+      </c>
+      <c r="B318" s="1"/>
+      <c r="C318" s="1"/>
+      <c r="D318" s="1"/>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" s="3">
+        <v>0.970138888888888</v>
+      </c>
+      <c r="B319" s="1"/>
+      <c r="C319" s="1"/>
+      <c r="D319" s="1"/>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" s="3">
+        <v>0.97083333333333299</v>
+      </c>
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" s="3">
+        <v>0.97152777777777699</v>
+      </c>
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
+      <c r="D321" s="1"/>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" s="3">
+        <v>0.97222222222222099</v>
+      </c>
+      <c r="B322" s="1"/>
+      <c r="C322" s="1"/>
+      <c r="D322" s="1"/>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" s="3">
+        <v>0.97291666666666599</v>
+      </c>
+      <c r="B323" s="1"/>
+      <c r="C323" s="1"/>
+      <c r="D323" s="1"/>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" s="3">
+        <v>0.97361111111110998</v>
+      </c>
+      <c r="B324" s="1"/>
+      <c r="C324" s="1"/>
+      <c r="D324" s="1"/>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" s="3">
+        <v>0.97430555555555498</v>
+      </c>
+      <c r="B325" s="1"/>
+      <c r="C325" s="1"/>
+      <c r="D325" s="1"/>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" s="3">
+        <v>0.97499999999999898</v>
+      </c>
+      <c r="B326" s="1"/>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1"/>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" s="3">
+        <v>0.97569444444444398</v>
+      </c>
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
+      <c r="D327" s="1"/>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" s="3">
+        <v>0.97638888888888797</v>
+      </c>
+      <c r="B328" s="1"/>
+      <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" s="3">
+        <v>0.97708333333333297</v>
+      </c>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" s="3">
+        <v>0.97777777777777697</v>
+      </c>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" s="3">
+        <v>0.97847222222222097</v>
+      </c>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1"/>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" s="3">
+        <v>0.97916666666666596</v>
+      </c>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
+      <c r="D332" s="1"/>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333" s="3">
+        <v>0.97986111111110996</v>
+      </c>
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1"/>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" s="3">
+        <v>0.98055555555555496</v>
+      </c>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1"/>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" s="3">
+        <v>0.98124999999999896</v>
+      </c>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336" s="3">
+        <v>0.98194444444444395</v>
+      </c>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" s="3">
+        <v>0.98263888888888795</v>
+      </c>
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="1"/>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" s="3">
+        <v>0.98333333333333295</v>
+      </c>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" s="3">
+        <v>0.98402777777777695</v>
+      </c>
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1"/>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" s="3">
+        <v>0.98472222222222106</v>
+      </c>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1"/>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" s="3">
+        <v>0.98541666666666605</v>
+      </c>
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+      <c r="D341" s="1"/>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" s="3">
+        <v>0.98611111111111005</v>
+      </c>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1"/>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343" s="3">
+        <v>0.98680555555555505</v>
+      </c>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" s="3">
+        <v>0.98749999999999905</v>
+      </c>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" s="3">
+        <v>0.98819444444444404</v>
+      </c>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1"/>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" s="3">
+        <v>0.98888888888888804</v>
+      </c>
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" s="3">
+        <v>0.98958333333333204</v>
+      </c>
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
+      <c r="D347" s="1"/>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" s="3">
+        <v>0.99027777777777704</v>
+      </c>
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+      <c r="D348" s="1"/>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" s="3">
+        <v>0.99097222222222103</v>
+      </c>
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+      <c r="D349" s="1"/>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" s="3">
+        <v>0.99166666666666603</v>
+      </c>
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351" s="3">
+        <v>0.99236111111111003</v>
+      </c>
+      <c r="B351" s="1"/>
+      <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" s="3">
+        <v>0.99305555555555503</v>
+      </c>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" s="3">
+        <v>0.99374999999999902</v>
+      </c>
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" s="3">
+        <v>0.99444444444444402</v>
+      </c>
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" s="3">
+        <v>0.99513888888888802</v>
+      </c>
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
+      <c r="D355" s="1"/>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" s="3">
+        <v>0.99583333333333202</v>
+      </c>
+      <c r="B356" s="1"/>
+      <c r="C356" s="1"/>
+      <c r="D356" s="1"/>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" s="3">
+        <v>0.99652777777777701</v>
+      </c>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" s="3">
+        <v>0.99722222222222101</v>
+      </c>
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
+      <c r="D358" s="1"/>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" s="3">
+        <v>0.99791666666666601</v>
+      </c>
+      <c r="B359" s="1"/>
+      <c r="C359" s="1"/>
+      <c r="D359" s="1"/>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" s="3">
+        <v>0.99861111111111001</v>
+      </c>
+      <c r="B360" s="1"/>
+      <c r="C360" s="1"/>
+      <c r="D360" s="1"/>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" s="3">
+        <v>0.999305555555555</v>
+      </c>
+      <c r="B361" s="1"/>
+      <c r="C361" s="1"/>
+      <c r="D361" s="1"/>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" s="3">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" s="3">
+        <v>1.0006944444444399</v>
+      </c>
+      <c r="B363" s="1"/>
+      <c r="C363" s="1"/>
+      <c r="D363" s="1"/>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" s="3">
+        <v>1.00138888888889</v>
+      </c>
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
+      <c r="D364" s="1"/>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A365" s="3">
+        <v>1.0020833333333301</v>
+      </c>
+      <c r="B365" s="1"/>
+      <c r="C365" s="1"/>
+      <c r="D365" s="1"/>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" s="3">
+        <v>1.00277777777778</v>
+      </c>
+      <c r="B366" s="1"/>
+      <c r="C366" s="1"/>
+      <c r="D366" s="1"/>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" s="3">
+        <v>1.0034722222222201</v>
+      </c>
+      <c r="B367" s="1"/>
+      <c r="C367" s="1"/>
+      <c r="D367" s="1"/>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" s="3">
+        <v>1.00416666666667</v>
+      </c>
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
+      <c r="D368" s="1"/>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A369" s="3">
+        <v>1.0048611111111101</v>
+      </c>
+      <c r="B369" s="1"/>
+      <c r="C369" s="1"/>
+      <c r="D369" s="1"/>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370" s="3">
+        <v>1.00555555555556</v>
+      </c>
+      <c r="B370" s="1"/>
+      <c r="C370" s="1"/>
+      <c r="D370" s="1"/>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371" s="3">
+        <v>1.0062500000000001</v>
+      </c>
+      <c r="B371" s="1"/>
+      <c r="C371" s="1"/>
+      <c r="D371" s="1"/>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372" s="3">
+        <v>1.00694444444444</v>
+      </c>
+      <c r="B372" s="1"/>
+      <c r="C372" s="1"/>
+      <c r="D372" s="1"/>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373" s="3">
+        <v>1.0076388888888901</v>
+      </c>
+      <c r="B373" s="1"/>
+      <c r="C373" s="1"/>
+      <c r="D373" s="1"/>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374" s="3">
+        <v>1.00833333333333</v>
+      </c>
+      <c r="B374" s="1"/>
+      <c r="C374" s="1"/>
+      <c r="D374" s="1"/>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A375" s="3">
+        <v>1.0090277777777801</v>
+      </c>
+      <c r="B375" s="1"/>
+      <c r="C375" s="1"/>
+      <c r="D375" s="1"/>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A376" s="3">
+        <v>1.00972222222222</v>
+      </c>
+      <c r="B376" s="1"/>
+      <c r="C376" s="1"/>
+      <c r="D376" s="1"/>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A377" s="3">
+        <v>1.0104166666666701</v>
+      </c>
+      <c r="B377" s="1"/>
+      <c r="C377" s="1"/>
+      <c r="D377" s="1"/>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A378" s="3">
+        <v>1.01111111111111</v>
+      </c>
+      <c r="B378" s="1"/>
+      <c r="C378" s="1"/>
+      <c r="D378" s="1"/>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379" s="3">
+        <v>1.0118055555555501</v>
+      </c>
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
+      <c r="D379" s="1"/>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380" s="3">
+        <v>1.0125</v>
+      </c>
+      <c r="B380" s="1"/>
+      <c r="C380" s="1"/>
+      <c r="D380" s="1"/>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A381" s="3">
+        <v>1.0131944444444401</v>
+      </c>
+      <c r="B381" s="1"/>
+      <c r="C381" s="1"/>
+      <c r="D381" s="1"/>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A382" s="3">
+        <v>1.0138888888888899</v>
+      </c>
+      <c r="B382" s="1"/>
+      <c r="C382" s="1"/>
+      <c r="D382" s="1"/>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A383" s="3">
+        <v>1.0145833333333301</v>
+      </c>
+      <c r="B383" s="1"/>
+      <c r="C383" s="1"/>
+      <c r="D383" s="1"/>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384" s="3">
+        <v>1.0152777777777799</v>
+      </c>
+      <c r="B384" s="1"/>
+      <c r="C384" s="1"/>
+      <c r="D384" s="1"/>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385" s="3">
+        <v>1.0159722222222201</v>
+      </c>
+      <c r="B385" s="1"/>
+      <c r="C385" s="1"/>
+      <c r="D385" s="1"/>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A386" s="3">
+        <v>1.0166666666666699</v>
+      </c>
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
+      <c r="D386" s="1"/>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A387" s="3">
+        <v>1.0173611111111101</v>
+      </c>
+      <c r="B387" s="1"/>
+      <c r="C387" s="1"/>
+      <c r="D387" s="1"/>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A388" s="3">
+        <v>1.0180555555555599</v>
+      </c>
+      <c r="B388" s="1"/>
+      <c r="C388" s="1"/>
+      <c r="D388" s="1"/>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A389" s="3">
+        <v>1.01875</v>
+      </c>
+      <c r="B389" s="1"/>
+      <c r="C389" s="1"/>
+      <c r="D389" s="1"/>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A390" s="3">
+        <v>1.0194444444444399</v>
+      </c>
+      <c r="B390" s="1"/>
+      <c r="C390" s="1"/>
+      <c r="D390" s="1"/>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A391" s="3">
+        <v>1.02013888888889</v>
+      </c>
+      <c r="B391" s="1"/>
+      <c r="C391" s="1"/>
+      <c r="D391" s="1"/>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A392" s="3">
+        <v>1.0208333333333299</v>
+      </c>
+      <c r="B392" s="1"/>
+      <c r="C392" s="1"/>
+      <c r="D392" s="1"/>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A393" s="3">
+        <v>1.02152777777778</v>
+      </c>
+      <c r="B393" s="1"/>
+      <c r="C393" s="1"/>
+      <c r="D393" s="1"/>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A394" s="3">
+        <v>1.0222222222222199</v>
+      </c>
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
+      <c r="D394" s="1"/>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A395" s="3">
+        <v>1.02291666666667</v>
+      </c>
+      <c r="B395" s="1"/>
+      <c r="C395" s="1"/>
+      <c r="D395" s="1"/>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A396" s="3">
+        <v>1.0236111111111099</v>
+      </c>
+      <c r="B396" s="1"/>
+      <c r="C396" s="1"/>
+      <c r="D396" s="1"/>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A397" s="3">
+        <v>1.02430555555555</v>
+      </c>
+      <c r="B397" s="1"/>
+      <c r="C397" s="1"/>
+      <c r="D397" s="1"/>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A398" s="3">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="B398" s="1"/>
+      <c r="C398" s="1"/>
+      <c r="D398" s="1"/>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A399" s="3">
+        <v>1.02569444444444</v>
+      </c>
+      <c r="B399" s="1"/>
+      <c r="C399" s="1"/>
+      <c r="D399" s="1"/>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A400" s="3">
+        <v>1.0263888888888899</v>
+      </c>
+      <c r="B400" s="1"/>
+      <c r="C400" s="1"/>
+      <c r="D400" s="1"/>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A401" s="3">
+        <v>1.02708333333333</v>
+      </c>
+      <c r="B401" s="1"/>
+      <c r="C401" s="1"/>
+      <c r="D401" s="1"/>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A402" s="3">
+        <v>1.0277777777777799</v>
+      </c>
+      <c r="B402" s="1"/>
+      <c r="C402" s="1"/>
+      <c r="D402" s="1"/>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A403" s="3">
+        <v>1.02847222222222</v>
+      </c>
+      <c r="B403" s="1"/>
+      <c r="C403" s="1"/>
+      <c r="D403" s="1"/>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A404" s="3">
+        <v>1.0291666666666699</v>
+      </c>
+      <c r="B404" s="1"/>
+      <c r="C404" s="1"/>
+      <c r="D404" s="1"/>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A405" s="3">
+        <v>1.02986111111111</v>
+      </c>
+      <c r="B405" s="1"/>
+      <c r="C405" s="1"/>
+      <c r="D405" s="1"/>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A406" s="3">
+        <v>1.0305555555555601</v>
+      </c>
+      <c r="B406" s="1"/>
+      <c r="C406" s="1"/>
+      <c r="D406" s="1"/>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A407" s="3">
+        <v>1.03125</v>
+      </c>
+      <c r="B407" s="1"/>
+      <c r="C407" s="1"/>
+      <c r="D407" s="1"/>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A408" s="3">
+        <v>1.0319444444444399</v>
+      </c>
+      <c r="B408" s="1"/>
+      <c r="C408" s="1"/>
+      <c r="D408" s="1"/>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A409" s="3">
+        <v>1.03263888888889</v>
+      </c>
+      <c r="B409" s="1"/>
+      <c r="C409" s="1"/>
+      <c r="D409" s="1"/>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A410" s="3">
+        <v>1.0333333333333301</v>
+      </c>
+      <c r="B410" s="1"/>
+      <c r="C410" s="1"/>
+      <c r="D410" s="1"/>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A411" s="3">
+        <v>1.03402777777778</v>
+      </c>
+      <c r="B411" s="1"/>
+      <c r="C411" s="1"/>
+      <c r="D411" s="1"/>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A412" s="3">
+        <v>1.0347222222222201</v>
+      </c>
+      <c r="B412" s="1"/>
+      <c r="C412" s="1"/>
+      <c r="D412" s="1"/>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A413" s="3">
+        <v>1.03541666666667</v>
+      </c>
+      <c r="B413" s="1"/>
+      <c r="C413" s="1"/>
+      <c r="D413" s="1"/>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A414" s="3">
+        <v>1.0361111111111101</v>
+      </c>
+      <c r="B414" s="1"/>
+      <c r="C414" s="1"/>
+      <c r="D414" s="1"/>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A415" s="3">
+        <v>1.03680555555556</v>
+      </c>
+      <c r="B415" s="1"/>
+      <c r="C415" s="1"/>
+      <c r="D415" s="1"/>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A416" s="3">
+        <v>1.0375000000000001</v>
+      </c>
+      <c r="B416" s="1"/>
+      <c r="C416" s="1"/>
+      <c r="D416" s="1"/>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A417" s="3">
+        <v>1.03819444444444</v>
+      </c>
+      <c r="B417" s="1"/>
+      <c r="C417" s="1"/>
+      <c r="D417" s="1"/>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A418" s="3">
+        <v>1.0388888888888901</v>
+      </c>
+      <c r="B418" s="1"/>
+      <c r="C418" s="1"/>
+      <c r="D418" s="1"/>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A419" s="3">
+        <v>1.03958333333333</v>
+      </c>
+      <c r="B419" s="1"/>
+      <c r="C419" s="1"/>
+      <c r="D419" s="1"/>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A420" s="3">
+        <v>1.0402777777777801</v>
+      </c>
+      <c r="B420" s="1"/>
+      <c r="C420" s="1"/>
+      <c r="D420" s="1"/>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="3">
+        <v>1.04097222222222</v>
+      </c>
+      <c r="B421" s="1"/>
+      <c r="C421" s="1"/>
+      <c r="D421" s="1"/>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="3">
+        <v>1.0416666666666701</v>
+      </c>
+      <c r="B422" s="1"/>
+      <c r="C422" s="1"/>
+      <c r="D422" s="1"/>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="3">
+        <v>1.04236111111111</v>
+      </c>
+      <c r="B423" s="1"/>
+      <c r="C423" s="1"/>
+      <c r="D423" s="1"/>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="3">
+        <v>1.0430555555555501</v>
+      </c>
+      <c r="B424" s="1"/>
+      <c r="C424" s="1"/>
+      <c r="D424" s="1"/>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A425" s="3">
+        <v>1.04375</v>
+      </c>
+      <c r="B425" s="1"/>
+      <c r="C425" s="1"/>
+      <c r="D425" s="1"/>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A426" s="3">
+        <v>1.0444444444444401</v>
+      </c>
+      <c r="B426" s="1"/>
+      <c r="C426" s="1"/>
+      <c r="D426" s="1"/>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A427" s="3">
+        <v>1.0451388888888899</v>
+      </c>
+      <c r="B427" s="1"/>
+      <c r="C427" s="1"/>
+      <c r="D427" s="1"/>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A428" s="3">
+        <v>1.0458333333333301</v>
+      </c>
+      <c r="B428" s="1"/>
+      <c r="C428" s="1"/>
+      <c r="D428" s="1"/>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A429" s="3">
+        <v>1.0465277777777799</v>
+      </c>
+      <c r="B429" s="1"/>
+      <c r="C429" s="1"/>
+      <c r="D429" s="1"/>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A430" s="3">
+        <v>1.0472222222222201</v>
+      </c>
+      <c r="B430" s="1"/>
+      <c r="C430" s="1"/>
+      <c r="D430" s="1"/>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A431" s="3">
+        <v>1.0479166666666699</v>
+      </c>
+      <c r="B431" s="1"/>
+      <c r="C431" s="1"/>
+      <c r="D431" s="1"/>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A432" s="3">
+        <v>1.0486111111111101</v>
+      </c>
+      <c r="B432" s="1"/>
+      <c r="C432" s="1"/>
+      <c r="D432" s="1"/>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A433" s="3">
+        <v>1.0493055555555499</v>
+      </c>
+      <c r="B433" s="1"/>
+      <c r="C433" s="1"/>
+      <c r="D433" s="1"/>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A434" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="B434" s="1"/>
+      <c r="C434" s="1"/>
+      <c r="D434" s="1"/>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A435" s="3">
+        <v>1.0506944444444399</v>
+      </c>
+      <c r="B435" s="1"/>
+      <c r="C435" s="1"/>
+      <c r="D435" s="1"/>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A436" s="3">
+        <v>1.05138888888889</v>
+      </c>
+      <c r="B436" s="1"/>
+      <c r="C436" s="1"/>
+      <c r="D436" s="1"/>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A437" s="3">
+        <v>1.0520833333333299</v>
+      </c>
+      <c r="B437" s="1"/>
+      <c r="C437" s="1"/>
+      <c r="D437" s="1"/>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A438" s="3">
+        <v>1.05277777777778</v>
+      </c>
+      <c r="B438" s="1"/>
+      <c r="C438" s="1"/>
+      <c r="D438" s="1"/>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A439" s="3">
+        <v>1.0534722222222199</v>
+      </c>
+      <c r="B439" s="1"/>
+      <c r="C439" s="1"/>
+      <c r="D439" s="1"/>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A440" s="3">
+        <v>1.05416666666667</v>
+      </c>
+      <c r="B440" s="1"/>
+      <c r="C440" s="1"/>
+      <c r="D440" s="1"/>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A441" s="3">
+        <v>1.0548611111111099</v>
+      </c>
+      <c r="B441" s="1"/>
+      <c r="C441" s="1"/>
+      <c r="D441" s="1"/>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A442" s="3">
+        <v>1.05555555555555</v>
+      </c>
+      <c r="B442" s="1"/>
+      <c r="C442" s="1"/>
+      <c r="D442" s="1"/>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A443" s="3">
+        <v>1.0562499999999999</v>
+      </c>
+      <c r="B443" s="1"/>
+      <c r="C443" s="1"/>
+      <c r="D443" s="1"/>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A444" s="3">
+        <v>1.05694444444444</v>
+      </c>
+      <c r="B444" s="1"/>
+      <c r="C444" s="1"/>
+      <c r="D444" s="1"/>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A445" s="3">
+        <v>1.0576388888888899</v>
+      </c>
+      <c r="B445" s="1"/>
+      <c r="C445" s="1"/>
+      <c r="D445" s="1"/>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A446" s="3">
+        <v>1.05833333333333</v>
+      </c>
+      <c r="B446" s="1"/>
+      <c r="C446" s="1"/>
+      <c r="D446" s="1"/>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A447" s="3">
+        <v>1.0590277777777799</v>
+      </c>
+      <c r="B447" s="1"/>
+      <c r="C447" s="1"/>
+      <c r="D447" s="1"/>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A448" s="3">
+        <v>1.05972222222222</v>
+      </c>
+      <c r="B448" s="1"/>
+      <c r="C448" s="1"/>
+      <c r="D448" s="1"/>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A449" s="3">
+        <v>1.0604166666666699</v>
+      </c>
+      <c r="B449" s="1"/>
+      <c r="C449" s="1"/>
+      <c r="D449" s="1"/>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A450" s="3">
+        <v>1.06111111111111</v>
+      </c>
+      <c r="B450" s="1"/>
+      <c r="C450" s="1"/>
+      <c r="D450" s="1"/>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="3">
+        <v>1.0618055555555499</v>
+      </c>
+      <c r="B451" s="1"/>
+      <c r="C451" s="1"/>
+      <c r="D451" s="1"/>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A452" s="3">
+        <v>1.0625</v>
+      </c>
+      <c r="B452" s="1"/>
+      <c r="C452" s="1"/>
+      <c r="D452" s="1"/>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A453" s="3">
+        <v>1.0631944444444399</v>
+      </c>
+      <c r="B453" s="1"/>
+      <c r="C453" s="1"/>
+      <c r="D453" s="1"/>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A454" s="3">
+        <v>1.06388888888889</v>
+      </c>
+      <c r="B454" s="1"/>
+      <c r="C454" s="1"/>
+      <c r="D454" s="1"/>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A455" s="3">
+        <v>1.0645833333333301</v>
+      </c>
+      <c r="B455" s="1"/>
+      <c r="C455" s="1"/>
+      <c r="D455" s="1"/>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A456" s="3">
+        <v>1.06527777777778</v>
+      </c>
+      <c r="B456" s="1"/>
+      <c r="C456" s="1"/>
+      <c r="D456" s="1"/>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A457" s="3">
+        <v>1.0659722222222201</v>
+      </c>
+      <c r="B457" s="1"/>
+      <c r="C457" s="1"/>
+      <c r="D457" s="1"/>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A458" s="3">
+        <v>1.06666666666667</v>
+      </c>
+      <c r="B458" s="1"/>
+      <c r="C458" s="1"/>
+      <c r="D458" s="1"/>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A459" s="3">
+        <v>1.0673611111111101</v>
+      </c>
+      <c r="B459" s="1"/>
+      <c r="C459" s="1"/>
+      <c r="D459" s="1"/>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A460" s="3">
+        <v>1.06805555555555</v>
+      </c>
+      <c r="B460" s="1"/>
+      <c r="C460" s="1"/>
+      <c r="D460" s="1"/>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A461" s="3">
+        <v>1.0687500000000001</v>
+      </c>
+      <c r="B461" s="1"/>
+      <c r="C461" s="1"/>
+      <c r="D461" s="1"/>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A462" s="3">
+        <v>1.06944444444444</v>
+      </c>
+      <c r="B462" s="1"/>
+      <c r="C462" s="1"/>
+      <c r="D462" s="1"/>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A463" s="3">
+        <v>1.0701388888888901</v>
+      </c>
+      <c r="B463" s="1"/>
+      <c r="C463" s="1"/>
+      <c r="D463" s="1"/>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A464" s="3">
+        <v>1.07083333333333</v>
+      </c>
+      <c r="B464" s="1"/>
+      <c r="C464" s="1"/>
+      <c r="D464" s="1"/>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A465" s="3">
+        <v>1.0715277777777801</v>
+      </c>
+      <c r="B465" s="1"/>
+      <c r="C465" s="1"/>
+      <c r="D465" s="1"/>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A466" s="3">
+        <v>1.07222222222222</v>
+      </c>
+      <c r="B466" s="1"/>
+      <c r="C466" s="1"/>
+      <c r="D466" s="1"/>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A467" s="3">
+        <v>1.0729166666666701</v>
+      </c>
+      <c r="B467" s="1"/>
+      <c r="C467" s="1"/>
+      <c r="D467" s="1"/>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A468" s="3">
+        <v>1.07361111111111</v>
+      </c>
+      <c r="B468" s="1"/>
+      <c r="C468" s="1"/>
+      <c r="D468" s="1"/>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A469" s="3">
+        <v>1.0743055555555501</v>
+      </c>
+      <c r="B469" s="1"/>
+      <c r="C469" s="1"/>
+      <c r="D469" s="1"/>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A470" s="3">
+        <v>1.075</v>
+      </c>
+      <c r="B470" s="1"/>
+      <c r="C470" s="1"/>
+      <c r="D470" s="1"/>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A471" s="3">
+        <v>1.0756944444444401</v>
+      </c>
+      <c r="B471" s="1"/>
+      <c r="C471" s="1"/>
+      <c r="D471" s="1"/>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A472" s="3">
+        <v>1.0763888888888899</v>
+      </c>
+      <c r="B472" s="1"/>
+      <c r="C472" s="1"/>
+      <c r="D472" s="1"/>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A473" s="3">
+        <v>1.0770833333333301</v>
+      </c>
+      <c r="B473" s="1"/>
+      <c r="C473" s="1"/>
+      <c r="D473" s="1"/>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A474" s="3">
+        <v>1.0777777777777799</v>
+      </c>
+      <c r="B474" s="1"/>
+      <c r="C474" s="1"/>
+      <c r="D474" s="1"/>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A475" s="3">
+        <v>1.0784722222222201</v>
+      </c>
+      <c r="B475" s="1"/>
+      <c r="C475" s="1"/>
+      <c r="D475" s="1"/>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A476" s="3">
+        <v>1.0791666666666699</v>
+      </c>
+      <c r="B476" s="1"/>
+      <c r="C476" s="1"/>
+      <c r="D476" s="1"/>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A477" s="3">
+        <v>1.0798611111111101</v>
+      </c>
+      <c r="B477" s="1"/>
+      <c r="C477" s="1"/>
+      <c r="D477" s="1"/>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A478" s="3">
+        <v>1.0805555555555499</v>
+      </c>
+      <c r="B478" s="1"/>
+      <c r="C478" s="1"/>
+      <c r="D478" s="1"/>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A479" s="3">
+        <v>1.08125</v>
+      </c>
+      <c r="B479" s="1"/>
+      <c r="C479" s="1"/>
+      <c r="D479" s="1"/>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A480" s="3">
+        <v>1.0819444444444399</v>
+      </c>
+      <c r="B480" s="1"/>
+      <c r="C480" s="1"/>
+      <c r="D480" s="1"/>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A481" s="3">
+        <v>1.08263888888889</v>
+      </c>
+      <c r="B481" s="1"/>
+      <c r="C481" s="1"/>
+      <c r="D481" s="1"/>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A482" s="3">
+        <v>1.0833333333333299</v>
+      </c>
+      <c r="B482" s="1"/>
+      <c r="C482" s="1"/>
+      <c r="D482" s="1"/>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A483" s="3">
+        <v>1.08402777777778</v>
+      </c>
+      <c r="B483" s="1"/>
+      <c r="C483" s="1"/>
+      <c r="D483" s="1"/>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A484" s="3">
+        <v>1.0847222222222199</v>
+      </c>
+      <c r="B484" s="1"/>
+      <c r="C484" s="1"/>
+      <c r="D484" s="1"/>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A485" s="3">
+        <v>1.08541666666666</v>
+      </c>
+      <c r="B485" s="1"/>
+      <c r="C485" s="1"/>
+      <c r="D485" s="1"/>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="3">
+        <v>1.0861111111111099</v>
+      </c>
+      <c r="B486" s="1"/>
+      <c r="C486" s="1"/>
+      <c r="D486" s="1"/>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A487" s="3">
+        <v>1.08680555555555</v>
+      </c>
+      <c r="B487" s="1"/>
+      <c r="C487" s="1"/>
+      <c r="D487" s="1"/>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A488" s="3">
+        <v>1.0874999999999999</v>
+      </c>
+      <c r="B488" s="1"/>
+      <c r="C488" s="1"/>
+      <c r="D488" s="1"/>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A489" s="3">
+        <v>1.08819444444444</v>
+      </c>
+      <c r="B489" s="1"/>
+      <c r="C489" s="1"/>
+      <c r="D489" s="1"/>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A490" s="3">
+        <v>1.0888888888888899</v>
+      </c>
+      <c r="B490" s="1"/>
+      <c r="C490" s="1"/>
+      <c r="D490" s="1"/>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="3">
+        <v>1.08958333333333</v>
+      </c>
+      <c r="B491" s="1"/>
+      <c r="C491" s="1"/>
+      <c r="D491" s="1"/>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="3">
+        <v>1.0902777777777799</v>
+      </c>
+      <c r="B492" s="1"/>
+      <c r="C492" s="1"/>
+      <c r="D492" s="1"/>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="3">
+        <v>1.09097222222222</v>
+      </c>
+      <c r="B493" s="1"/>
+      <c r="C493" s="1"/>
+      <c r="D493" s="1"/>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A494" s="3">
+        <v>1.0916666666666699</v>
+      </c>
+      <c r="B494" s="1"/>
+      <c r="C494" s="1"/>
+      <c r="D494" s="1"/>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A495" s="3">
+        <v>1.09236111111111</v>
+      </c>
+      <c r="B495" s="1"/>
+      <c r="C495" s="1"/>
+      <c r="D495" s="1"/>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="3">
+        <v>1.0930555555555499</v>
+      </c>
+      <c r="B496" s="1"/>
+      <c r="C496" s="1"/>
+      <c r="D496" s="1"/>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A497" s="3">
+        <v>1.09375</v>
+      </c>
+      <c r="B497" s="1"/>
+      <c r="C497" s="1"/>
+      <c r="D497" s="1"/>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A498" s="3">
+        <v>1.0944444444444399</v>
+      </c>
+      <c r="B498" s="1"/>
+      <c r="C498" s="1"/>
+      <c r="D498" s="1"/>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A499" s="3">
+        <v>1.09513888888889</v>
+      </c>
+      <c r="B499" s="1"/>
+      <c r="C499" s="1"/>
+      <c r="D499" s="1"/>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A500" s="3">
+        <v>1.0958333333333301</v>
+      </c>
+      <c r="B500" s="1"/>
+      <c r="C500" s="1"/>
+      <c r="D500" s="1"/>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A501" s="3">
+        <v>1.09652777777778</v>
+      </c>
+      <c r="B501" s="1"/>
+      <c r="C501" s="1"/>
+      <c r="D501" s="1"/>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A502" s="3">
+        <v>1.0972222222222201</v>
+      </c>
+      <c r="B502" s="1"/>
+      <c r="C502" s="1"/>
+      <c r="D502" s="1"/>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A503" s="3">
+        <v>1.09791666666667</v>
+      </c>
+      <c r="B503" s="1"/>
+      <c r="C503" s="1"/>
+      <c r="D503" s="1"/>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A504" s="3">
+        <v>1.0986111111111101</v>
+      </c>
+      <c r="B504" s="1"/>
+      <c r="C504" s="1"/>
+      <c r="D504" s="1"/>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A505" s="3">
+        <v>1.09930555555555</v>
+      </c>
+      <c r="B505" s="1"/>
+      <c r="C505" s="1"/>
+      <c r="D505" s="1"/>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A506" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B506" s="1"/>
+      <c r="C506" s="1"/>
+      <c r="D506" s="1"/>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A507" s="3">
+        <v>1.10069444444444</v>
+      </c>
+      <c r="B507" s="1"/>
+      <c r="C507" s="1"/>
+      <c r="D507" s="1"/>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A508" s="3">
+        <v>1.1013888888888901</v>
+      </c>
+      <c r="B508" s="1"/>
+      <c r="C508" s="1"/>
+      <c r="D508" s="1"/>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A509" s="3">
+        <v>1.10208333333333</v>
+      </c>
+      <c r="B509" s="1"/>
+      <c r="C509" s="1"/>
+      <c r="D509" s="1"/>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A510" s="3">
+        <v>1.1027777777777801</v>
+      </c>
+      <c r="B510" s="1"/>
+      <c r="C510" s="1"/>
+      <c r="D510" s="1"/>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="3">
+        <v>1.10347222222222</v>
+      </c>
+      <c r="B511" s="1"/>
+      <c r="C511" s="1"/>
+      <c r="D511" s="1"/>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A512" s="3">
+        <v>1.1041666666666601</v>
+      </c>
+      <c r="B512" s="1"/>
+      <c r="C512" s="1"/>
+      <c r="D512" s="1"/>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="3">
+        <v>1.10486111111111</v>
+      </c>
+      <c r="B513" s="1"/>
+      <c r="C513" s="1"/>
+      <c r="D513" s="1"/>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="3">
+        <v>1.1055555555555501</v>
+      </c>
+      <c r="B514" s="1"/>
+      <c r="C514" s="1"/>
+      <c r="D514" s="1"/>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A515" s="3">
+        <v>1.10625</v>
+      </c>
+      <c r="B515" s="1"/>
+      <c r="C515" s="1"/>
+      <c r="D515" s="1"/>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="3">
+        <v>1.1069444444444401</v>
+      </c>
+      <c r="B516" s="1"/>
+      <c r="C516" s="1"/>
+      <c r="D516" s="1"/>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="3">
+        <v>1.1076388888888899</v>
+      </c>
+      <c r="B517" s="1"/>
+      <c r="C517" s="1"/>
+      <c r="D517" s="1"/>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A518" s="3">
+        <v>1.1083333333333301</v>
+      </c>
+      <c r="B518" s="1"/>
+      <c r="C518" s="1"/>
+      <c r="D518" s="1"/>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A519" s="3">
+        <v>1.1090277777777799</v>
+      </c>
+      <c r="B519" s="1"/>
+      <c r="C519" s="1"/>
+      <c r="D519" s="1"/>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A520" s="3">
+        <v>1.1097222222222201</v>
+      </c>
+      <c r="B520" s="1"/>
+      <c r="C520" s="1"/>
+      <c r="D520" s="1"/>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A521" s="3">
+        <v>1.1104166666666699</v>
+      </c>
+      <c r="B521" s="1"/>
+      <c r="C521" s="1"/>
+      <c r="D521" s="1"/>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A522" s="3">
+        <v>1.1111111111111101</v>
+      </c>
+      <c r="B522" s="1"/>
+      <c r="C522" s="1"/>
+      <c r="D522" s="1"/>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="3">
+        <v>1.1118055555555499</v>
+      </c>
+      <c r="B523" s="1"/>
+      <c r="C523" s="1"/>
+      <c r="D523" s="1"/>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="3">
+        <v>1.1125</v>
+      </c>
+      <c r="B524" s="1"/>
+      <c r="C524" s="1"/>
+      <c r="D524" s="1"/>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="3">
+        <v>1.1131944444444399</v>
+      </c>
+      <c r="B525" s="1"/>
+      <c r="C525" s="1"/>
+      <c r="D525" s="1"/>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="3">
+        <v>1.11388888888889</v>
+      </c>
+      <c r="B526" s="1"/>
+      <c r="C526" s="1"/>
+      <c r="D526" s="1"/>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="3">
+        <v>1.1145833333333299</v>
+      </c>
+      <c r="B527" s="1"/>
+      <c r="C527" s="1"/>
+      <c r="D527" s="1"/>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="3">
+        <v>1.11527777777778</v>
+      </c>
+      <c r="B528" s="1"/>
+      <c r="C528" s="1"/>
+      <c r="D528" s="1"/>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A529" s="3">
+        <v>1.1159722222222199</v>
+      </c>
+      <c r="B529" s="1"/>
+      <c r="C529" s="1"/>
+      <c r="D529" s="1"/>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A530" s="3">
+        <v>1.11666666666666</v>
+      </c>
+      <c r="B530" s="1"/>
+      <c r="C530" s="1"/>
+      <c r="D530" s="1"/>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A531" s="3">
+        <v>1.1173611111111099</v>
+      </c>
+      <c r="B531" s="1"/>
+      <c r="C531" s="1"/>
+      <c r="D531" s="1"/>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A532" s="3">
+        <v>1.11805555555555</v>
+      </c>
+      <c r="B532" s="1"/>
+      <c r="C532" s="1"/>
+      <c r="D532" s="1"/>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A533" s="3">
+        <v>1.1187499999999999</v>
+      </c>
+      <c r="B533" s="1"/>
+      <c r="C533" s="1"/>
+      <c r="D533" s="1"/>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A534" s="3">
+        <v>1.11944444444444</v>
+      </c>
+      <c r="B534" s="1"/>
+      <c r="C534" s="1"/>
+      <c r="D534" s="1"/>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A535" s="3">
+        <v>1.1201388888888899</v>
+      </c>
+      <c r="B535" s="1"/>
+      <c r="C535" s="1"/>
+      <c r="D535" s="1"/>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A536" s="3">
+        <v>1.12083333333333</v>
+      </c>
+      <c r="B536" s="1"/>
+      <c r="C536" s="1"/>
+      <c r="D536" s="1"/>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A537" s="3">
+        <v>1.1215277777777799</v>
+      </c>
+      <c r="B537" s="1"/>
+      <c r="C537" s="1"/>
+      <c r="D537" s="1"/>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A538" s="3">
+        <v>1.12222222222222</v>
+      </c>
+      <c r="B538" s="1"/>
+      <c r="C538" s="1"/>
+      <c r="D538" s="1"/>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A539" s="3">
+        <v>1.1229166666666699</v>
+      </c>
+      <c r="B539" s="1"/>
+      <c r="C539" s="1"/>
+      <c r="D539" s="1"/>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A540" s="3">
+        <v>1.12361111111111</v>
+      </c>
+      <c r="B540" s="1"/>
+      <c r="C540" s="1"/>
+      <c r="D540" s="1"/>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A541" s="3">
+        <v>1.1243055555555499</v>
+      </c>
+      <c r="B541" s="1"/>
+      <c r="C541" s="1"/>
+      <c r="D541" s="1"/>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A542" s="3">
+        <v>1.125</v>
+      </c>
+      <c r="B542" s="1"/>
+      <c r="C542" s="1"/>
+      <c r="D542" s="1"/>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A543" s="3">
+        <v>1.1256944444444399</v>
+      </c>
+      <c r="B543" s="1"/>
+      <c r="C543" s="1"/>
+      <c r="D543" s="1"/>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A544" s="3">
+        <v>1.12638888888889</v>
+      </c>
+      <c r="B544" s="1"/>
+      <c r="C544" s="1"/>
+      <c r="D544" s="1"/>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A545" s="3">
+        <v>1.1270833333333301</v>
+      </c>
+      <c r="B545" s="1"/>
+      <c r="C545" s="1"/>
+      <c r="D545" s="1"/>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A546" s="3">
+        <v>1.12777777777778</v>
+      </c>
+      <c r="B546" s="1"/>
+      <c r="C546" s="1"/>
+      <c r="D546" s="1"/>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A547" s="3">
+        <v>1.1284722222222201</v>
+      </c>
+      <c r="B547" s="1"/>
+      <c r="C547" s="1"/>
+      <c r="D547" s="1"/>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A548" s="3">
+        <v>1.12916666666667</v>
+      </c>
+      <c r="B548" s="1"/>
+      <c r="C548" s="1"/>
+      <c r="D548" s="1"/>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A549" s="3">
+        <v>1.1298611111111101</v>
+      </c>
+      <c r="B549" s="1"/>
+      <c r="C549" s="1"/>
+      <c r="D549" s="1"/>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A550" s="3">
+        <v>1.13055555555555</v>
+      </c>
+      <c r="B550" s="1"/>
+      <c r="C550" s="1"/>
+      <c r="D550" s="1"/>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A551" s="3">
+        <v>1.1312500000000001</v>
+      </c>
+      <c r="B551" s="1"/>
+      <c r="C551" s="1"/>
+      <c r="D551" s="1"/>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A552" s="3">
+        <v>1.13194444444444</v>
+      </c>
+      <c r="B552" s="1"/>
+      <c r="C552" s="1"/>
+      <c r="D552" s="1"/>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A553" s="3">
+        <v>1.1326388888888901</v>
+      </c>
+      <c r="B553" s="1"/>
+      <c r="C553" s="1"/>
+      <c r="D553" s="1"/>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A554" s="3">
+        <v>1.13333333333333</v>
+      </c>
+      <c r="B554" s="1"/>
+      <c r="C554" s="1"/>
+      <c r="D554" s="1"/>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A555" s="3">
+        <v>1.1340277777777801</v>
+      </c>
+      <c r="B555" s="1"/>
+      <c r="C555" s="1"/>
+      <c r="D555" s="1"/>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A556" s="3">
+        <v>1.13472222222222</v>
+      </c>
+      <c r="B556" s="1"/>
+      <c r="C556" s="1"/>
+      <c r="D556" s="1"/>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A557" s="3">
+        <v>1.1354166666666601</v>
+      </c>
+      <c r="B557" s="1"/>
+      <c r="C557" s="1"/>
+      <c r="D557" s="1"/>
+    </row>
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A558" s="3">
+        <v>1.13611111111111</v>
+      </c>
+      <c r="B558" s="1"/>
+      <c r="C558" s="1"/>
+      <c r="D558" s="1"/>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A559" s="3">
+        <v>1.1368055555555501</v>
+      </c>
+      <c r="B559" s="1"/>
+      <c r="C559" s="1"/>
+      <c r="D559" s="1"/>
+    </row>
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A560" s="3">
+        <v>1.1375</v>
+      </c>
+      <c r="B560" s="1"/>
+      <c r="C560" s="1"/>
+      <c r="D560" s="1"/>
+    </row>
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A561" s="3">
+        <v>1.1381944444444401</v>
+      </c>
+      <c r="B561" s="1"/>
+      <c r="C561" s="1"/>
+      <c r="D561" s="1"/>
+    </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A562" s="3">
+        <v>1.1388888888888899</v>
+      </c>
+      <c r="B562" s="1"/>
+      <c r="C562" s="1"/>
+      <c r="D562" s="1"/>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A563" s="3">
+        <v>1.1395833333333301</v>
+      </c>
+      <c r="B563" s="1"/>
+      <c r="C563" s="1"/>
+      <c r="D563" s="1"/>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A564" s="3">
+        <v>1.1402777777777799</v>
+      </c>
+      <c r="B564" s="1"/>
+      <c r="C564" s="1"/>
+      <c r="D564" s="1"/>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A565" s="3">
+        <v>1.1409722222222201</v>
+      </c>
+      <c r="B565" s="1"/>
+      <c r="C565" s="1"/>
+      <c r="D565" s="1"/>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A566" s="3">
+        <v>1.1416666666666699</v>
+      </c>
+      <c r="B566" s="1"/>
+      <c r="C566" s="1"/>
+      <c r="D566" s="1"/>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A567" s="3">
+        <v>1.1423611111111101</v>
+      </c>
+      <c r="B567" s="1"/>
+      <c r="C567" s="1"/>
+      <c r="D567" s="1"/>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A568" s="3">
+        <v>1.1430555555555499</v>
+      </c>
+      <c r="B568" s="1"/>
+      <c r="C568" s="1"/>
+      <c r="D568" s="1"/>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A569" s="3">
+        <v>1.14375</v>
+      </c>
+      <c r="B569" s="1"/>
+      <c r="C569" s="1"/>
+      <c r="D569" s="1"/>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A570" s="3">
+        <v>1.1444444444444399</v>
+      </c>
+      <c r="B570" s="1"/>
+      <c r="C570" s="1"/>
+      <c r="D570" s="1"/>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A571" s="3">
+        <v>1.14513888888889</v>
+      </c>
+      <c r="B571" s="1"/>
+      <c r="C571" s="1"/>
+      <c r="D571" s="1"/>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A572" s="3">
+        <v>1.1458333333333299</v>
+      </c>
+      <c r="B572" s="1"/>
+      <c r="C572" s="1"/>
+      <c r="D572" s="1"/>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A573" s="3">
+        <v>1.14652777777778</v>
+      </c>
+      <c r="B573" s="1"/>
+      <c r="C573" s="1"/>
+      <c r="D573" s="1"/>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A574" s="3">
+        <v>1.1472222222222199</v>
+      </c>
+      <c r="B574" s="1"/>
+      <c r="C574" s="1"/>
+      <c r="D574" s="1"/>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A575" s="3">
+        <v>1.14791666666666</v>
+      </c>
+      <c r="B575" s="1"/>
+      <c r="C575" s="1"/>
+      <c r="D575" s="1"/>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A576" s="3">
+        <v>1.1486111111111099</v>
+      </c>
+      <c r="B576" s="1"/>
+      <c r="C576" s="1"/>
+      <c r="D576" s="1"/>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A577" s="3">
+        <v>1.14930555555555</v>
+      </c>
+      <c r="B577" s="1"/>
+      <c r="C577" s="1"/>
+      <c r="D577" s="1"/>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A578" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B578" s="1"/>
+      <c r="C578" s="1"/>
+      <c r="D578" s="1"/>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A579" s="3">
+        <v>1.15069444444444</v>
+      </c>
+      <c r="B579" s="1"/>
+      <c r="C579" s="1"/>
+      <c r="D579" s="1"/>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A580" s="3">
+        <v>1.1513888888888899</v>
+      </c>
+      <c r="B580" s="1"/>
+      <c r="C580" s="1"/>
+      <c r="D580" s="1"/>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A581" s="3">
+        <v>1.15208333333333</v>
+      </c>
+      <c r="B581" s="1"/>
+      <c r="C581" s="1"/>
+      <c r="D581" s="1"/>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A582" s="3">
+        <v>1.1527777777777799</v>
+      </c>
+      <c r="B582" s="1"/>
+      <c r="C582" s="1"/>
+      <c r="D582" s="1"/>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A583" s="3">
+        <v>1.15347222222222</v>
+      </c>
+      <c r="B583" s="1"/>
+      <c r="C583" s="1"/>
+      <c r="D583" s="1"/>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A584" s="3">
+        <v>1.1541666666666699</v>
+      </c>
+      <c r="B584" s="1"/>
+      <c r="C584" s="1"/>
+      <c r="D584" s="1"/>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A585" s="3">
+        <v>1.15486111111111</v>
+      </c>
+      <c r="B585" s="1"/>
+      <c r="C585" s="1"/>
+      <c r="D585" s="1"/>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A586" s="3">
+        <v>1.1555555555555499</v>
+      </c>
+      <c r="B586" s="1"/>
+      <c r="C586" s="1"/>
+      <c r="D586" s="1"/>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A587" s="3">
+        <v>1.15625</v>
+      </c>
+      <c r="B587" s="1"/>
+      <c r="C587" s="1"/>
+      <c r="D587" s="1"/>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A588" s="3">
+        <v>1.1569444444444399</v>
+      </c>
+      <c r="B588" s="1"/>
+      <c r="C588" s="1"/>
+      <c r="D588" s="1"/>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A589" s="3">
+        <v>1.15763888888889</v>
+      </c>
+      <c r="B589" s="1"/>
+      <c r="C589" s="1"/>
+      <c r="D589" s="1"/>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A590" s="3">
+        <v>1.1583333333333301</v>
+      </c>
+      <c r="B590" s="1"/>
+      <c r="C590" s="1"/>
+      <c r="D590" s="1"/>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A591" s="3">
+        <v>1.15902777777778</v>
+      </c>
+      <c r="B591" s="1"/>
+      <c r="C591" s="1"/>
+      <c r="D591" s="1"/>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A592" s="3">
+        <v>1.1597222222222201</v>
+      </c>
+      <c r="B592" s="1"/>
+      <c r="C592" s="1"/>
+      <c r="D592" s="1"/>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A593" s="3">
+        <v>1.16041666666667</v>
+      </c>
+      <c r="B593" s="1"/>
+      <c r="C593" s="1"/>
+      <c r="D593" s="1"/>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A594" s="3">
+        <v>1.1611111111111101</v>
+      </c>
+      <c r="B594" s="1"/>
+      <c r="C594" s="1"/>
+      <c r="D594" s="1"/>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A595" s="3">
+        <v>1.16180555555555</v>
+      </c>
+      <c r="B595" s="1"/>
+      <c r="C595" s="1"/>
+      <c r="D595" s="1"/>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A596" s="3">
+        <v>1.1625000000000001</v>
+      </c>
+      <c r="B596" s="1"/>
+      <c r="C596" s="1"/>
+      <c r="D596" s="1"/>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A597" s="3">
+        <v>1.16319444444444</v>
+      </c>
+      <c r="B597" s="1"/>
+      <c r="C597" s="1"/>
+      <c r="D597" s="1"/>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A598" s="3">
+        <v>1.1638888888888901</v>
+      </c>
+      <c r="B598" s="1"/>
+      <c r="C598" s="1"/>
+      <c r="D598" s="1"/>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A599" s="3">
+        <v>1.16458333333333</v>
+      </c>
+      <c r="B599" s="1"/>
+      <c r="C599" s="1"/>
+      <c r="D599" s="1"/>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A600" s="3">
+        <v>1.1652777777777801</v>
+      </c>
+      <c r="B600" s="1"/>
+      <c r="C600" s="1"/>
+      <c r="D600" s="1"/>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A601" s="3">
+        <v>1.16597222222222</v>
+      </c>
+      <c r="B601" s="1"/>
+      <c r="C601" s="1"/>
+      <c r="D601" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:XFD1" xr:uid="{376ECE96-BE5F-F041-BA6A-4799911781C2}">
+      <formula1>NAMES</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01909B1B-44B6-4544-B68A-EC97546CA38A}">
   <dimension ref="A1:D601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13424,7 +18395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4D4AA5-9BAB-49F8-B550-5AAC43785C90}">
   <dimension ref="A1:D720"/>
   <sheetViews>

--- a/Assets/StoryCSVs/TestCSVs/WholeWorkbook/Test_Narrative_Workbook.xlsx
+++ b/Assets/StoryCSVs/TestCSVs/WholeWorkbook/Test_Narrative_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karimajouz/Documents/GitRepo/DataGame/DataGame/Assets/StoryCSVs/TestCSVs/WholeWorkbook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87006BB2-8401-FD46-A5DF-A6E57F24B067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52293EE7-E288-984E-ADDD-59EC42C64F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" activeTab="4" xr2:uid="{C3FDA416-CBEF-4DA2-AAFE-8CA8E918681D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{C3FDA416-CBEF-4DA2-AAFE-8CA8E918681D}"/>
   </bookViews>
   <sheets>
     <sheet name="TraitTable" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="122">
   <si>
     <t>ID</t>
   </si>
@@ -232,9 +232,6 @@
     <t>LOCATION</t>
   </si>
   <si>
-    <t>BIRTHPLACE</t>
-  </si>
-  <si>
     <t>EDUCATION</t>
   </si>
   <si>
@@ -245,15 +242,6 @@
   </si>
   <si>
     <t>WebID</t>
-  </si>
-  <si>
-    <t>EMPLOYMENT STATUS</t>
-  </si>
-  <si>
-    <t>OCCUPATION FIELD</t>
-  </si>
-  <si>
-    <t>GENDER IDENTITY</t>
   </si>
   <si>
     <t>SEXUALITY</t>
@@ -370,9 +358,6 @@
     <t>Education</t>
   </si>
   <si>
-    <t>LOCATIONS</t>
-  </si>
-  <si>
     <t>As the first item in this spreadsheet this is the initial forum post</t>
   </si>
   <si>
@@ -453,6 +438,30 @@
   </si>
   <si>
     <t># The muffin man.</t>
+  </si>
+  <si>
+    <t>EMPLOYMENT_STATUS</t>
+  </si>
+  <si>
+    <t>OCCUPATION_FIELD</t>
+  </si>
+  <si>
+    <t>GENDER_IDENTITY</t>
+  </si>
+  <si>
+    <t>LOCATION_CURRENT</t>
+  </si>
+  <si>
+    <t>LOCATION_BIRTHPLACE</t>
+  </si>
+  <si>
+    <t>GENDER</t>
+  </si>
+  <si>
+    <t>OCCUPATION</t>
+  </si>
+  <si>
+    <t>EMPLOYMENT</t>
   </si>
 </sst>
 </file>
@@ -867,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338823B8-C032-4C47-BD81-E46255195D8B}">
   <dimension ref="A1:G550"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -887,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -910,19 +919,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>60</v>
       </c>
       <c r="G2" t="s">
         <v>35</v>
@@ -933,19 +942,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
         <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" t="s">
-        <v>65</v>
       </c>
       <c r="G3" t="s">
         <v>38</v>
@@ -956,19 +965,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
         <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -976,16 +985,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
         <v>39</v>
@@ -996,16 +1005,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
         <v>40</v>
@@ -1016,13 +1025,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1030,13 +1039,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1044,10 +1053,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1055,10 +1064,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1066,10 +1075,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1077,10 +1086,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3783,7 +3792,7 @@
   <dimension ref="A1:L196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3807,34 +3816,34 @@
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3845,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3854,25 +3863,25 @@
         <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G2" s="8">
         <v>27004</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3883,7 +3892,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -3892,25 +3901,25 @@
         <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G3" s="8">
         <v>26505</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3921,7 +3930,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -3936,19 +3945,19 @@
         <v>26894</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3974,19 +3983,19 @@
         <v>33298</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -4006,25 +4015,25 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G6" s="8">
         <v>31084</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -4050,19 +4059,19 @@
         <v>34772</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -4070,10 +4079,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -4088,19 +4097,19 @@
         <v>31980</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -4108,10 +4117,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -4126,19 +4135,19 @@
         <v>31981</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4146,10 +4155,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -4164,19 +4173,19 @@
         <v>31982</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -5215,7 +5224,7 @@
         <v>30000</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -8704,7 +8713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28CF1F1-F6C4-5344-AA49-CF5550407A65}">
   <dimension ref="A1:D601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -8717,10 +8726,10 @@
     <row r="1" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D1" s="4"/>
     </row>
@@ -8809,7 +8818,7 @@
         <v>0.75694444444444398</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -8820,7 +8829,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -8829,7 +8838,7 @@
         <v>0.75833333333333297</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -8840,7 +8849,7 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -8849,7 +8858,7 @@
         <v>0.75972222222222197</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -8860,7 +8869,7 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -8869,7 +8878,7 @@
         <v>0.76111111111111096</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -8880,7 +8889,7 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -8889,7 +8898,7 @@
         <v>0.76249999999999996</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -8900,7 +8909,7 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -8909,7 +8918,7 @@
         <v>0.76388888888888895</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -8920,7 +8929,7 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -18428,7 +18437,7 @@
         <v>0.75</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -18456,7 +18465,7 @@
         <v>0.75347222222222199</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -18469,7 +18478,7 @@
         <v>0.75486111111111098</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -18477,7 +18486,7 @@
         <v>0.75555555555555598</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -18485,7 +18494,7 @@
         <v>0.75624999999999998</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/Assets/StoryCSVs/TestCSVs/WholeWorkbook/Test_Narrative_Workbook.xlsx
+++ b/Assets/StoryCSVs/TestCSVs/WholeWorkbook/Test_Narrative_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karimajouz/Documents/GitRepo/DataGame/DataGame/Assets/StoryCSVs/TestCSVs/WholeWorkbook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52293EE7-E288-984E-ADDD-59EC42C64F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECA6019-94C3-C144-B6C8-B2AC6449A8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{C3FDA416-CBEF-4DA2-AAFE-8CA8E918681D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" activeTab="3" xr2:uid="{C3FDA416-CBEF-4DA2-AAFE-8CA8E918681D}"/>
   </bookViews>
   <sheets>
     <sheet name="TraitTable" sheetId="1" r:id="rId1"/>
@@ -87,15 +87,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
   <si>
     <t>John</t>
-  </si>
-  <si>
-    <t>David</t>
   </si>
   <si>
     <t>Amy</t>
@@ -876,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338823B8-C032-4C47-BD81-E46255195D8B}">
   <dimension ref="A1:G550"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -896,22 +893,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -919,22 +916,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>55</v>
       </c>
-      <c r="F2" t="s">
-        <v>56</v>
-      </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -942,22 +939,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>60</v>
       </c>
-      <c r="F3" t="s">
-        <v>61</v>
-      </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -965,19 +962,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>64</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>65</v>
-      </c>
-      <c r="G4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -985,19 +982,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
         <v>67</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>68</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>69</v>
       </c>
-      <c r="F5" t="s">
-        <v>70</v>
-      </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1005,19 +1002,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
         <v>71</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>72</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>73</v>
       </c>
-      <c r="F6" t="s">
-        <v>74</v>
-      </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1025,13 +1022,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
         <v>75</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>76</v>
-      </c>
-      <c r="D7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1039,13 +1036,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
         <v>78</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>79</v>
-      </c>
-      <c r="D8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1053,10 +1050,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
         <v>81</v>
-      </c>
-      <c r="D9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1064,10 +1061,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="s">
         <v>83</v>
-      </c>
-      <c r="D10" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1075,10 +1072,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" t="s">
         <v>85</v>
-      </c>
-      <c r="D11" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1086,10 +1083,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
         <v>87</v>
-      </c>
-      <c r="D12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3813,37 +3810,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3854,34 +3851,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" s="8">
         <v>27004</v>
       </c>
       <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
         <v>62</v>
       </c>
-      <c r="I2" t="s">
-        <v>63</v>
-      </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -3889,37 +3886,37 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="8">
         <v>26505</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s">
         <v>55</v>
-      </c>
-      <c r="L3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -3927,37 +3924,37 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G4" s="8">
         <v>26894</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s">
         <v>72</v>
       </c>
-      <c r="J4" t="s">
-        <v>73</v>
-      </c>
       <c r="K4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -3965,37 +3962,37 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="8">
         <v>33298</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
         <v>68</v>
       </c>
-      <c r="J5" t="s">
-        <v>69</v>
-      </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -4003,37 +4000,37 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="8">
         <v>31084</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" t="s">
         <v>55</v>
-      </c>
-      <c r="L6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -4041,37 +4038,37 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
         <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
       </c>
       <c r="G7" s="8">
         <v>34772</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
         <v>79</v>
       </c>
-      <c r="J7" t="s">
-        <v>80</v>
-      </c>
       <c r="K7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -4079,37 +4076,37 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
         <v>95</v>
-      </c>
-      <c r="C8" t="s">
-        <v>96</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="8">
         <v>31980</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -4117,37 +4114,37 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="8">
         <v>31981</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4155,37 +4152,37 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="8">
         <v>31982</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" t="s">
         <v>73</v>
-      </c>
-      <c r="K10" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -5161,104 +5158,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="7">
         <v>7000</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
         <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
       </c>
       <c r="D3" s="7">
         <v>2000</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
       </c>
       <c r="D4" s="7">
         <v>30000</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="7">
         <v>3000</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="7">
         <v>8000</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -5270,8 +5267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75D9D40-B82B-4836-B9A6-01E5F8AA0E57}">
   <dimension ref="A1:D720"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5285,10 +5282,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5296,7 +5293,7 @@
         <v>0.75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5304,7 +5301,7 @@
         <v>0.75069444444444444</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5312,7 +5309,7 @@
         <v>0.75138888888888899</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5320,7 +5317,7 @@
         <v>0.75208333333333299</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5328,7 +5325,7 @@
         <v>0.75277777777777799</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5336,7 +5333,7 @@
         <v>0.75347222222222199</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5344,7 +5341,7 @@
         <v>0.75416666666666698</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -5352,7 +5349,7 @@
         <v>0.75486111111111098</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -5360,7 +5357,7 @@
         <v>0.75555555555555598</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -5368,7 +5365,7 @@
         <v>0.75624999999999998</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -5376,13 +5373,13 @@
         <v>0.75694444444444398</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -5390,7 +5387,7 @@
         <v>0.75763888888888897</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -5398,7 +5395,7 @@
         <v>0.75833333333333297</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -5406,7 +5403,7 @@
         <v>0.75902777777777797</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -5414,7 +5411,7 @@
         <v>0.75972222222222197</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="48" x14ac:dyDescent="0.2">
@@ -5422,7 +5419,7 @@
         <v>0.76041666666666696</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -8714,7 +8711,7 @@
   <dimension ref="A1:D601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8726,10 +8723,10 @@
     <row r="1" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D1" s="4"/>
     </row>
@@ -8818,7 +8815,7 @@
         <v>0.75694444444444398</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -8829,7 +8826,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -8838,7 +8835,7 @@
         <v>0.75833333333333297</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -8849,7 +8846,7 @@
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -8858,7 +8855,7 @@
         <v>0.75972222222222197</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -8869,7 +8866,7 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -8878,7 +8875,7 @@
         <v>0.76111111111111096</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -8889,7 +8886,7 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -8898,7 +8895,7 @@
         <v>0.76249999999999996</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -8909,7 +8906,7 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -8918,7 +8915,7 @@
         <v>0.76388888888888895</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -8929,7 +8926,7 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -13584,13 +13581,13 @@
     <row r="1" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -18426,10 +18423,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -18437,7 +18434,7 @@
         <v>0.75</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -18465,7 +18462,7 @@
         <v>0.75347222222222199</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -18478,7 +18475,7 @@
         <v>0.75486111111111098</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -18486,7 +18483,7 @@
         <v>0.75555555555555598</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -18494,7 +18491,7 @@
         <v>0.75624999999999998</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/Assets/StoryCSVs/TestCSVs/WholeWorkbook/Test_Narrative_Workbook.xlsx
+++ b/Assets/StoryCSVs/TestCSVs/WholeWorkbook/Test_Narrative_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karimajouz/Documents/GitRepo/DataGame/DataGame/Assets/StoryCSVs/TestCSVs/WholeWorkbook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECA6019-94C3-C144-B6C8-B2AC6449A8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC3AA44-EA2E-704E-8F86-6E65C865D851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" activeTab="3" xr2:uid="{C3FDA416-CBEF-4DA2-AAFE-8CA8E918681D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{C3FDA416-CBEF-4DA2-AAFE-8CA8E918681D}"/>
   </bookViews>
   <sheets>
     <sheet name="TraitTable" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338823B8-C032-4C47-BD81-E46255195D8B}">
   <dimension ref="A1:G550"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1030,6 +1030,9 @@
       <c r="D7" t="s">
         <v>76</v>
       </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
@@ -3789,7 +3792,7 @@
   <dimension ref="A1:L196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5267,7 +5270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75D9D40-B82B-4836-B9A6-01E5F8AA0E57}">
   <dimension ref="A1:D720"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/Assets/StoryCSVs/TestCSVs/WholeWorkbook/Test_Narrative_Workbook.xlsx
+++ b/Assets/StoryCSVs/TestCSVs/WholeWorkbook/Test_Narrative_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karimajouz/Documents/GitRepo/DataGame/DataGame/Assets/StoryCSVs/TestCSVs/WholeWorkbook/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC3AA44-EA2E-704E-8F86-6E65C865D851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0FA8E3-39E5-F44D-8176-67AAD62A402A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{C3FDA416-CBEF-4DA2-AAFE-8CA8E918681D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" activeTab="7" xr2:uid="{C3FDA416-CBEF-4DA2-AAFE-8CA8E918681D}"/>
   </bookViews>
   <sheets>
     <sheet name="TraitTable" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Chatlog MuffinMan" sheetId="7" r:id="rId5"/>
     <sheet name="Chatlog Template" sheetId="3" r:id="rId6"/>
     <sheet name="ForumPostTemplate" sheetId="6" r:id="rId7"/>
+    <sheet name="Feedback" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="CHARNAME">Characters!$B$2:$B$201</definedName>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="141">
   <si>
     <t>ID</t>
   </si>
@@ -459,6 +460,66 @@
   </si>
   <si>
     <t>EMPLOYMENT</t>
+  </si>
+  <si>
+    <t>What's the twist?</t>
+  </si>
+  <si>
+    <t>What's the flavour?</t>
+  </si>
+  <si>
+    <t>Aesthetic</t>
+  </si>
+  <si>
+    <t>Visuals</t>
+  </si>
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>90s Theme,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Corporate Office Culture</t>
+  </si>
+  <si>
+    <t>Late Stage Capitalism</t>
+  </si>
+  <si>
+    <t>What is the flavour?</t>
+  </si>
+  <si>
+    <t>What is the twist?</t>
+  </si>
+  <si>
+    <t>Unless I want players to feel the suffocating hopelessness of late stage capitalism…</t>
+  </si>
+  <si>
+    <t>If I want to take it further than that I should be thinking about narrative catharsis</t>
+  </si>
+  <si>
+    <t>How do I give the player the ending that makes sense/give them a sense of accomplishment</t>
+  </si>
+  <si>
+    <t>Do I give them a moment of release? What does that look like?</t>
+  </si>
+  <si>
+    <t>The Caution:</t>
+  </si>
+  <si>
+    <t>What I've described narratively/genre-wise is a 1980s narrative dystopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very popular genre - how do I use that genre as a basis that I can build off of </t>
+  </si>
+  <si>
+    <t>Needs to be new, unique, and innovate there</t>
+  </si>
+  <si>
+    <t>Success here comes from finding uniqueness within the genre</t>
+  </si>
+  <si>
+    <t>Nicks Comments</t>
   </si>
 </sst>
 </file>
@@ -873,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338823B8-C032-4C47-BD81-E46255195D8B}">
   <dimension ref="A1:G550"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5148,7 +5209,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8714,13 +8775,15 @@
   <dimension ref="A1:D601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="57.1640625" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -21812,4 +21875,108 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01092DD-DEEC-1C4D-8992-87670F9AD878}">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.1640625" customWidth="1"/>
+    <col min="3" max="3" width="43.83203125" customWidth="1"/>
+    <col min="4" max="4" width="48" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="69.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>